--- a/data/1-final_data/elected_mayors_age_gender.xlsx
+++ b/data/1-final_data/elected_mayors_age_gender.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U6090413\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusto/Desktop/UCR/Seminario/Github/DataCleaning/data/1-final_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BC28F3-8C25-4346-B6B2-993B96B79106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE085C5-B93E-D446-8B1C-7872F9ACF2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9D75A18B-EEDA-43E5-B51F-451C34645EC7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{9D75A18B-EEDA-43E5-B51F-451C34645EC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="295">
   <si>
     <t>San José</t>
   </si>
@@ -385,9 +385,6 @@
   </si>
   <si>
     <t>Zarcero</t>
-  </si>
-  <si>
-    <t>Alfaro Ruiz (Zarcero)</t>
   </si>
   <si>
     <t>Valverde Vega</t>
@@ -934,7 +931,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -978,7 +975,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1295,55 +1292,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FFA1C7-D3B2-453C-9912-74CA9FE3A0B8}">
   <dimension ref="A1:L244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" t="s">
         <v>284</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" t="s">
         <v>285</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1" t="s">
         <v>289</v>
       </c>
-      <c r="D1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H1" t="s">
-        <v>294</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>290</v>
       </c>
-      <c r="J1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1372,11 +1369,11 @@
         <v>48.869444444444447</v>
       </c>
       <c r="J2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1405,10 +1402,10 @@
         <v>53.036111111111111</v>
       </c>
       <c r="J3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1422,10 +1419,10 @@
         <v>104760724</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G4" s="5">
         <v>42553</v>
@@ -1437,10 +1434,10 @@
         <v>59.174999999999997</v>
       </c>
       <c r="J4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1448,7 +1445,7 @@
         <v>2006</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D5">
         <v>102700147</v>
@@ -1469,10 +1466,10 @@
         <v>66.736111111111114</v>
       </c>
       <c r="J5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1489,7 +1486,7 @@
         <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G6" s="5">
         <v>40310</v>
@@ -1501,10 +1498,10 @@
         <v>45.244444444444447</v>
       </c>
       <c r="J6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1521,7 +1518,7 @@
         <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G7" s="5">
         <v>42553</v>
@@ -1533,10 +1530,10 @@
         <v>51.383333333333333</v>
       </c>
       <c r="J7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1565,10 +1562,10 @@
         <v>32.583333333333336</v>
       </c>
       <c r="J8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1597,10 +1594,10 @@
         <v>36.75</v>
       </c>
       <c r="J9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1608,7 +1605,7 @@
         <v>2016</v>
       </c>
       <c r="C10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D10">
         <v>107200958</v>
@@ -1629,10 +1626,10 @@
         <v>47.575000000000003</v>
       </c>
       <c r="J10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1640,7 +1637,7 @@
         <v>2006</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D11">
         <v>104210587</v>
@@ -1661,10 +1658,10 @@
         <v>51.827777777777776</v>
       </c>
       <c r="J11" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1693,10 +1690,10 @@
         <v>53.65</v>
       </c>
       <c r="J12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1704,7 +1701,7 @@
         <v>2016</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D13">
         <v>104310055</v>
@@ -1725,10 +1722,10 @@
         <v>63.116666666666667</v>
       </c>
       <c r="J13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1736,7 +1733,7 @@
         <v>2006</v>
       </c>
       <c r="C14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
@@ -1751,10 +1748,10 @@
       <c r="H14" s="2"/>
       <c r="I14" s="6"/>
       <c r="J14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1783,10 +1780,10 @@
         <v>52.727777777777774</v>
       </c>
       <c r="J15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1794,7 +1791,7 @@
         <v>2016</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D16">
         <v>107340558</v>
@@ -1815,10 +1812,10 @@
         <v>47.591666666666669</v>
       </c>
       <c r="J16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1826,7 +1823,7 @@
         <v>2006</v>
       </c>
       <c r="C17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D17">
         <v>108100365</v>
@@ -1847,10 +1844,10 @@
         <v>34.444444444444443</v>
       </c>
       <c r="J17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1879,10 +1876,10 @@
         <v>52.255555555555553</v>
       </c>
       <c r="J18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1890,7 +1887,7 @@
         <v>2016</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D19">
         <v>103960354</v>
@@ -1911,10 +1908,10 @@
         <v>64.919444444444451</v>
       </c>
       <c r="J19" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1943,10 +1940,10 @@
         <v>37.319444444444443</v>
       </c>
       <c r="J20" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1975,10 +1972,10 @@
         <v>41.486111111111114</v>
       </c>
       <c r="J21" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1992,7 +1989,7 @@
         <v>107340346</v>
       </c>
       <c r="E22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F22" t="s">
         <v>80</v>
@@ -2007,10 +2004,10 @@
         <v>47.625</v>
       </c>
       <c r="J22" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2039,10 +2036,10 @@
         <v>50.69166666666667</v>
       </c>
       <c r="J23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -2071,10 +2068,10 @@
         <v>54.858333333333334</v>
       </c>
       <c r="J24" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2082,7 +2079,7 @@
         <v>2016</v>
       </c>
       <c r="C25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D25">
         <v>501710313</v>
@@ -2103,10 +2100,10 @@
         <v>58.49722222222222</v>
       </c>
       <c r="J25" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2135,10 +2132,10 @@
         <v>43.408333333333331</v>
       </c>
       <c r="J26" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2167,10 +2164,10 @@
         <v>47.575000000000003</v>
       </c>
       <c r="J27" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2199,10 +2196,10 @@
         <v>53.713888888888889</v>
       </c>
       <c r="J28" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2210,7 +2207,7 @@
         <v>2006</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D29">
         <v>103450440</v>
@@ -2231,10 +2228,10 @@
         <v>59.180555555555557</v>
       </c>
       <c r="J29" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2263,10 +2260,10 @@
         <v>56.222222222222221</v>
       </c>
       <c r="J30" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2274,13 +2271,13 @@
         <v>2016</v>
       </c>
       <c r="C31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D31">
         <v>501700859</v>
       </c>
       <c r="E31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F31" t="s">
         <v>80</v>
@@ -2295,10 +2292,10 @@
         <v>58.386111111111113</v>
       </c>
       <c r="J31" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2327,10 +2324,10 @@
         <v>45.119444444444447</v>
       </c>
       <c r="J32" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2359,10 +2356,10 @@
         <v>49.286111111111111</v>
       </c>
       <c r="J33" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2370,13 +2367,13 @@
         <v>2016</v>
       </c>
       <c r="C34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D34">
         <v>107650777</v>
       </c>
       <c r="E34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F34" t="s">
         <v>80</v>
@@ -2391,10 +2388,10 @@
         <v>46.333333333333336</v>
       </c>
       <c r="J34" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -2402,7 +2399,7 @@
         <v>2006</v>
       </c>
       <c r="C35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D35">
         <v>104950995</v>
@@ -2423,10 +2420,10 @@
         <v>47.586111111111109</v>
       </c>
       <c r="J35" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -2455,10 +2452,10 @@
         <v>54.469444444444441</v>
       </c>
       <c r="J36" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -2466,7 +2463,7 @@
         <v>2016</v>
       </c>
       <c r="C37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D37">
         <v>109830553</v>
@@ -2487,10 +2484,10 @@
         <v>38.68611111111111</v>
       </c>
       <c r="J37" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -2498,7 +2495,7 @@
         <v>2006</v>
       </c>
       <c r="C38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D38">
         <v>401210886</v>
@@ -2519,10 +2516,10 @@
         <v>53.194444444444443</v>
       </c>
       <c r="J38" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2551,10 +2548,10 @@
         <v>71.961111111111109</v>
       </c>
       <c r="J39" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -2562,7 +2559,7 @@
         <v>2016</v>
       </c>
       <c r="C40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D40">
         <v>106210461</v>
@@ -2583,11 +2580,11 @@
         <v>52.391666666666666</v>
       </c>
       <c r="J40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -2595,7 +2592,7 @@
         <v>2006</v>
       </c>
       <c r="C41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D41">
         <v>105350228</v>
@@ -2616,11 +2613,11 @@
         <v>45.763888888888886</v>
       </c>
       <c r="J41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -2649,11 +2646,11 @@
         <v>37.200000000000003</v>
       </c>
       <c r="J42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -2661,7 +2658,7 @@
         <v>2016</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D43">
         <v>112660934</v>
@@ -2682,11 +2679,11 @@
         <v>30.419444444444444</v>
       </c>
       <c r="J43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -2700,7 +2697,7 @@
         <v>601130988</v>
       </c>
       <c r="E44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F44" t="s">
         <v>80</v>
@@ -2715,11 +2712,11 @@
         <v>51.386111111111113</v>
       </c>
       <c r="J44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -2748,11 +2745,11 @@
         <v>55.552777777777777</v>
       </c>
       <c r="J45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -2760,16 +2757,16 @@
         <v>2016</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D46">
         <v>114560063</v>
       </c>
       <c r="E46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G46" s="5">
         <v>42553</v>
@@ -2781,11 +2778,11 @@
         <v>25.508333333333333</v>
       </c>
       <c r="J46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -2793,7 +2790,7 @@
         <v>2006</v>
       </c>
       <c r="C47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D47">
         <v>104250618</v>
@@ -2814,11 +2811,11 @@
         <v>52.905555555555559</v>
       </c>
       <c r="J47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -2847,11 +2844,11 @@
         <v>44.844444444444441</v>
       </c>
       <c r="J48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -2859,7 +2856,7 @@
         <v>2016</v>
       </c>
       <c r="C49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D49">
         <v>110630236</v>
@@ -2880,11 +2877,11 @@
         <v>36.333333333333336</v>
       </c>
       <c r="J49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -2892,7 +2889,7 @@
         <v>2006</v>
       </c>
       <c r="C50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D50">
         <v>103200790</v>
@@ -2913,11 +2910,11 @@
         <v>61.677777777777777</v>
       </c>
       <c r="J50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -2946,11 +2943,11 @@
         <v>39.708333333333336</v>
       </c>
       <c r="J51" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -2979,11 +2976,11 @@
         <v>45.847222222222221</v>
       </c>
       <c r="J52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -3000,7 +2997,7 @@
         <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G53" s="5">
         <v>38788</v>
@@ -3012,11 +3009,11 @@
         <v>39.533333333333331</v>
       </c>
       <c r="J53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -3033,7 +3030,7 @@
         <v>102</v>
       </c>
       <c r="F54" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G54" s="5">
         <v>40310</v>
@@ -3045,11 +3042,11 @@
         <v>43.7</v>
       </c>
       <c r="J54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -3066,7 +3063,7 @@
         <v>102</v>
       </c>
       <c r="F55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G55" s="5">
         <v>42553</v>
@@ -3078,11 +3075,11 @@
         <v>49.838888888888889</v>
       </c>
       <c r="J55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -3090,7 +3087,7 @@
         <v>2006</v>
       </c>
       <c r="C56" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D56">
         <v>106730022</v>
@@ -3111,11 +3108,11 @@
         <v>40.077777777777776</v>
       </c>
       <c r="J56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -3144,11 +3141,11 @@
         <v>50.06111111111111</v>
       </c>
       <c r="J57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -3156,7 +3153,7 @@
         <v>2016</v>
       </c>
       <c r="C58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D58">
         <v>110690606</v>
@@ -3177,11 +3174,11 @@
         <v>36.163888888888891</v>
       </c>
       <c r="J58" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -3210,11 +3207,11 @@
         <v>32.519444444444446</v>
       </c>
       <c r="J59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -3243,11 +3240,11 @@
         <v>36.68611111111111</v>
       </c>
       <c r="J60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -3255,7 +3252,7 @@
         <v>2016</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61">
         <v>104630683</v>
@@ -3276,11 +3273,11 @@
         <v>59.852777777777774</v>
       </c>
       <c r="J61" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -3288,7 +3285,7 @@
         <v>2006</v>
       </c>
       <c r="C62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D62">
         <v>102860801</v>
@@ -3309,11 +3306,11 @@
         <v>66.833333333333329</v>
       </c>
       <c r="J62" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -3342,11 +3339,11 @@
         <v>49.838888888888889</v>
       </c>
       <c r="J63" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -3375,11 +3372,11 @@
         <v>55.977777777777774</v>
       </c>
       <c r="J64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -3387,7 +3384,7 @@
         <v>2006</v>
       </c>
       <c r="C65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D65">
         <v>601100342</v>
@@ -3408,11 +3405,11 @@
         <v>51.674999999999997</v>
       </c>
       <c r="J65" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -3441,11 +3438,11 @@
         <v>59.505555555555553</v>
       </c>
       <c r="J66" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -3453,7 +3450,7 @@
         <v>2016</v>
       </c>
       <c r="C67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D67">
         <v>205600244</v>
@@ -3474,11 +3471,11 @@
         <v>35.194444444444443</v>
       </c>
       <c r="J67" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -3486,7 +3483,7 @@
         <v>2006</v>
       </c>
       <c r="C68" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D68">
         <v>202730416</v>
@@ -3507,11 +3504,11 @@
         <v>55.69166666666667</v>
       </c>
       <c r="J68" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -3540,11 +3537,11 @@
         <v>54.680555555555557</v>
       </c>
       <c r="J69" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>22</v>
       </c>
@@ -3552,7 +3549,7 @@
         <v>2016</v>
       </c>
       <c r="C70" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D70">
         <v>108690425</v>
@@ -3573,11 +3570,11 @@
         <v>42.544444444444444</v>
       </c>
       <c r="J70" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -3585,7 +3582,7 @@
         <v>2006</v>
       </c>
       <c r="C71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D71">
         <v>205690795</v>
@@ -3606,11 +3603,11 @@
         <v>23.994444444444444</v>
       </c>
       <c r="J71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -3639,11 +3636,11 @@
         <v>31.952777777777779</v>
       </c>
       <c r="J72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -3672,11 +3669,11 @@
         <v>38.091666666666669</v>
       </c>
       <c r="J73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -3705,11 +3702,11 @@
         <v>48.844444444444441</v>
       </c>
       <c r="J74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -3738,11 +3735,11 @@
         <v>53.011111111111113</v>
       </c>
       <c r="J75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -3771,11 +3768,11 @@
         <v>59.15</v>
       </c>
       <c r="J76" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>25</v>
       </c>
@@ -3783,7 +3780,7 @@
         <v>2006</v>
       </c>
       <c r="C77" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D77">
         <v>203000806</v>
@@ -3804,11 +3801,11 @@
         <v>51.055555555555557</v>
       </c>
       <c r="J77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>25</v>
       </c>
@@ -3837,11 +3834,11 @@
         <v>49.119444444444447</v>
       </c>
       <c r="J78" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>25</v>
       </c>
@@ -3849,7 +3846,7 @@
         <v>2016</v>
       </c>
       <c r="C79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D79">
         <v>202940731</v>
@@ -3870,11 +3867,11 @@
         <v>62.991666666666667</v>
       </c>
       <c r="J79" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -3882,7 +3879,7 @@
         <v>2006</v>
       </c>
       <c r="C80" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D80">
         <v>202430681</v>
@@ -3903,11 +3900,11 @@
         <v>59.663888888888891</v>
       </c>
       <c r="J80" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -3936,11 +3933,11 @@
         <v>46.044444444444444</v>
       </c>
       <c r="J81" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -3948,7 +3945,7 @@
         <v>2016</v>
       </c>
       <c r="C82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D82">
         <v>104210781</v>
@@ -3969,11 +3966,11 @@
         <v>62.972222222222221</v>
       </c>
       <c r="J82" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -4002,11 +3999,11 @@
         <v>47.55833333333333</v>
       </c>
       <c r="J83" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -4035,11 +4032,11 @@
         <v>51.725000000000001</v>
       </c>
       <c r="J84" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>27</v>
       </c>
@@ -4068,11 +4065,11 @@
         <v>57.863888888888887</v>
       </c>
       <c r="J85" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>28</v>
       </c>
@@ -4080,7 +4077,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D86" s="1">
         <v>110470665</v>
@@ -4101,11 +4098,11 @@
         <v>26.463888888888889</v>
       </c>
       <c r="J86" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>28</v>
       </c>
@@ -4134,11 +4131,11 @@
         <v>45.038888888888891</v>
       </c>
       <c r="J87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>28</v>
       </c>
@@ -4167,11 +4164,11 @@
         <v>51.177777777777777</v>
       </c>
       <c r="J88" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>29</v>
       </c>
@@ -4200,11 +4197,11 @@
         <v>42.402777777777779</v>
       </c>
       <c r="J89" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -4233,11 +4230,11 @@
         <v>46.569444444444443</v>
       </c>
       <c r="J90" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -4266,19 +4263,19 @@
         <v>52.708333333333336</v>
       </c>
       <c r="J91" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B92">
         <v>2006</v>
       </c>
       <c r="C92" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D92" s="1">
         <v>205250458</v>
@@ -4299,11 +4296,11 @@
         <v>28.25</v>
       </c>
       <c r="J92" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>115</v>
       </c>
@@ -4311,7 +4308,7 @@
         <v>2010</v>
       </c>
       <c r="C93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D93">
         <v>203780590</v>
@@ -4332,11 +4329,11 @@
         <v>47.236111111111114</v>
       </c>
       <c r="J93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>115</v>
       </c>
@@ -4344,7 +4341,7 @@
         <v>2016</v>
       </c>
       <c r="C94" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D94">
         <v>203630393</v>
@@ -4365,19 +4362,19 @@
         <v>54.886111111111113</v>
       </c>
       <c r="J94" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B95">
         <v>2006</v>
       </c>
       <c r="C95" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D95">
         <v>203930500</v>
@@ -4398,25 +4395,25 @@
         <v>41.988888888888887</v>
       </c>
       <c r="J95" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B96">
         <v>2010</v>
       </c>
       <c r="C96" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D96">
         <v>204330182</v>
       </c>
       <c r="E96" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F96" t="s">
         <v>80</v>
@@ -4431,19 +4428,19 @@
         <v>42.530555555555559</v>
       </c>
       <c r="J96" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B97">
         <v>2016</v>
       </c>
       <c r="C97" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D97">
         <v>203420081</v>
@@ -4464,11 +4461,11 @@
         <v>56.958333333333336</v>
       </c>
       <c r="J97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>30</v>
       </c>
@@ -4476,7 +4473,7 @@
         <v>2006</v>
       </c>
       <c r="C98" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D98">
         <v>104191230</v>
@@ -4497,11 +4494,11 @@
         <v>52.711111111111109</v>
       </c>
       <c r="J98" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>30</v>
       </c>
@@ -4509,7 +4506,7 @@
         <v>2010</v>
       </c>
       <c r="C99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D99">
         <v>900920559</v>
@@ -4530,11 +4527,11 @@
         <v>41.961111111111109</v>
       </c>
       <c r="J99" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>30</v>
       </c>
@@ -4542,7 +4539,7 @@
         <v>2016</v>
       </c>
       <c r="C100" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D100">
         <v>104191230</v>
@@ -4563,11 +4560,11 @@
         <v>58.505555555555553</v>
       </c>
       <c r="J100" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>31</v>
       </c>
@@ -4575,7 +4572,7 @@
         <v>2006</v>
       </c>
       <c r="C101" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D101">
         <v>203300813</v>
@@ -4596,11 +4593,11 @@
         <v>37.794444444444444</v>
       </c>
       <c r="J101" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>31</v>
       </c>
@@ -4608,7 +4605,7 @@
         <v>2010</v>
       </c>
       <c r="C102" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D102">
         <v>204340768</v>
@@ -4629,11 +4626,11 @@
         <v>42.327777777777776</v>
       </c>
       <c r="J102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>31</v>
       </c>
@@ -4641,7 +4638,7 @@
         <v>2016</v>
       </c>
       <c r="C103" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D103">
         <v>204100911</v>
@@ -4662,11 +4659,11 @@
         <v>50.633333333333333</v>
       </c>
       <c r="J103" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>32</v>
       </c>
@@ -4674,7 +4671,7 @@
         <v>2006</v>
       </c>
       <c r="C104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D104">
         <v>203990278</v>
@@ -4695,11 +4692,11 @@
         <v>41.455555555555556</v>
       </c>
       <c r="J104" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>32</v>
       </c>
@@ -4707,7 +4704,7 @@
         <v>2010</v>
       </c>
       <c r="C105" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D105">
         <v>202530906</v>
@@ -4728,11 +4725,11 @@
         <v>62.408333333333331</v>
       </c>
       <c r="J105" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>32</v>
       </c>
@@ -4740,7 +4737,7 @@
         <v>2016</v>
       </c>
       <c r="C106" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D106">
         <v>205030285</v>
@@ -4761,11 +4758,11 @@
         <v>41.080555555555556</v>
       </c>
       <c r="J106" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>33</v>
       </c>
@@ -4773,7 +4770,7 @@
         <v>2006</v>
       </c>
       <c r="C107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D107">
         <v>303090740</v>
@@ -4794,11 +4791,11 @@
         <v>35.6</v>
       </c>
       <c r="J107" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>33</v>
       </c>
@@ -4806,7 +4803,7 @@
         <v>2010</v>
       </c>
       <c r="C108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D108">
         <v>303090740</v>
@@ -4827,11 +4824,11 @@
         <v>39.766666666666666</v>
       </c>
       <c r="J108" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>33</v>
       </c>
@@ -4839,7 +4836,7 @@
         <v>2016</v>
       </c>
       <c r="C109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D109">
         <v>303090740</v>
@@ -4860,11 +4857,11 @@
         <v>45.905555555555559</v>
       </c>
       <c r="J109" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>34</v>
       </c>
@@ -4872,13 +4869,13 @@
         <v>2006</v>
       </c>
       <c r="C110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D110">
         <v>302490064</v>
       </c>
       <c r="E110" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F110" t="s">
         <v>80</v>
@@ -4893,11 +4890,11 @@
         <v>44.552777777777777</v>
       </c>
       <c r="J110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>34</v>
       </c>
@@ -4905,7 +4902,7 @@
         <v>2010</v>
       </c>
       <c r="C111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D111">
         <v>301940611</v>
@@ -4926,11 +4923,11 @@
         <v>57.733333333333334</v>
       </c>
       <c r="J111" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -4938,13 +4935,13 @@
         <v>2016</v>
       </c>
       <c r="C112" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D112">
         <v>302490064</v>
       </c>
       <c r="E112" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F112" t="s">
         <v>80</v>
@@ -4959,11 +4956,11 @@
         <v>63.87222222222222</v>
       </c>
       <c r="J112" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>35</v>
       </c>
@@ -4971,7 +4968,7 @@
         <v>2006</v>
       </c>
       <c r="C113" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D113">
         <v>302350106</v>
@@ -4992,11 +4989,11 @@
         <v>46.733333333333334</v>
       </c>
       <c r="J113" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>35</v>
       </c>
@@ -5004,7 +5001,7 @@
         <v>2010</v>
       </c>
       <c r="C114" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D114">
         <v>302350106</v>
@@ -5025,11 +5022,11 @@
         <v>50.9</v>
       </c>
       <c r="J114" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>35</v>
       </c>
@@ -5037,7 +5034,7 @@
         <v>2016</v>
       </c>
       <c r="C115" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D115">
         <v>105770483</v>
@@ -5058,11 +5055,11 @@
         <v>54.330555555555556</v>
       </c>
       <c r="J115" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>36</v>
       </c>
@@ -5070,7 +5067,7 @@
         <v>2006</v>
       </c>
       <c r="C116" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D116">
         <v>302020256</v>
@@ -5091,11 +5088,11 @@
         <v>51.986111111111114</v>
       </c>
       <c r="J116" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>36</v>
       </c>
@@ -5103,7 +5100,7 @@
         <v>2010</v>
       </c>
       <c r="C117" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D117">
         <v>302040019</v>
@@ -5124,11 +5121,11 @@
         <v>56.37222222222222</v>
       </c>
       <c r="J117" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>36</v>
       </c>
@@ -5136,7 +5133,7 @@
         <v>2016</v>
       </c>
       <c r="C118" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D118">
         <v>302680501</v>
@@ -5157,11 +5154,11 @@
         <v>52.244444444444447</v>
       </c>
       <c r="J118" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>37</v>
       </c>
@@ -5169,7 +5166,7 @@
         <v>2006</v>
       </c>
       <c r="C119" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D119">
         <v>302460677</v>
@@ -5190,11 +5187,11 @@
         <v>44.955555555555556</v>
       </c>
       <c r="J119" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>37</v>
       </c>
@@ -5202,7 +5199,7 @@
         <v>2010</v>
       </c>
       <c r="C120" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D120">
         <v>302270910</v>
@@ -5223,11 +5220,11 @@
         <v>51.674999999999997</v>
       </c>
       <c r="J120" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>37</v>
       </c>
@@ -5235,7 +5232,7 @@
         <v>2016</v>
       </c>
       <c r="C121" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D121">
         <v>303960013</v>
@@ -5256,11 +5253,11 @@
         <v>32.011111111111113</v>
       </c>
       <c r="J121" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>38</v>
       </c>
@@ -5268,7 +5265,7 @@
         <v>2006</v>
       </c>
       <c r="C122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D122">
         <v>301420316</v>
@@ -5289,11 +5286,11 @@
         <v>65.599999999999994</v>
       </c>
       <c r="J122" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>38</v>
       </c>
@@ -5301,7 +5298,7 @@
         <v>2010</v>
       </c>
       <c r="C123" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D123">
         <v>302520434</v>
@@ -5322,11 +5319,11 @@
         <v>48.483333333333334</v>
       </c>
       <c r="J123" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>38</v>
       </c>
@@ -5334,7 +5331,7 @@
         <v>2016</v>
       </c>
       <c r="C124" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D124">
         <v>302520434</v>
@@ -5355,11 +5352,11 @@
         <v>54.62222222222222</v>
       </c>
       <c r="J124" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>39</v>
       </c>
@@ -5367,7 +5364,7 @@
         <v>2006</v>
       </c>
       <c r="C125" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D125">
         <v>106670558</v>
@@ -5388,11 +5385,11 @@
         <v>40.174999999999997</v>
       </c>
       <c r="J125" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>39</v>
       </c>
@@ -5400,7 +5397,7 @@
         <v>2010</v>
       </c>
       <c r="C126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D126">
         <v>302340430</v>
@@ -5421,11 +5418,11 @@
         <v>51.033333333333331</v>
       </c>
       <c r="J126" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>39</v>
       </c>
@@ -5433,7 +5430,7 @@
         <v>2016</v>
       </c>
       <c r="C127" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D127">
         <v>304060844</v>
@@ -5454,11 +5451,11 @@
         <v>30.655555555555555</v>
       </c>
       <c r="J127" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -5466,7 +5463,7 @@
         <v>2006</v>
       </c>
       <c r="C128" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D128">
         <v>302300564</v>
@@ -5487,11 +5484,11 @@
         <v>47.480555555555554</v>
       </c>
       <c r="J128" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>40</v>
       </c>
@@ -5499,7 +5496,7 @@
         <v>2010</v>
       </c>
       <c r="C129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D129">
         <v>302510212</v>
@@ -5520,11 +5517,11 @@
         <v>48.413888888888891</v>
       </c>
       <c r="J129" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>40</v>
       </c>
@@ -5532,7 +5529,7 @@
         <v>2016</v>
       </c>
       <c r="C130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D130">
         <v>302510212</v>
@@ -5553,11 +5550,11 @@
         <v>54.552777777777777</v>
       </c>
       <c r="J130" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>41</v>
       </c>
@@ -5565,7 +5562,7 @@
         <v>2006</v>
       </c>
       <c r="C131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D131">
         <v>900490376</v>
@@ -5586,11 +5583,11 @@
         <v>50.333333333333336</v>
       </c>
       <c r="J131" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>41</v>
       </c>
@@ -5598,7 +5595,7 @@
         <v>2010</v>
       </c>
       <c r="C132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D132">
         <v>900490376</v>
@@ -5619,11 +5616,11 @@
         <v>54.5</v>
       </c>
       <c r="J132" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>41</v>
       </c>
@@ -5631,7 +5628,7 @@
         <v>2016</v>
       </c>
       <c r="C133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D133">
         <v>900490376</v>
@@ -5652,11 +5649,11 @@
         <v>60.638888888888886</v>
       </c>
       <c r="J133" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L133" s="3"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>42</v>
       </c>
@@ -5664,7 +5661,7 @@
         <v>2006</v>
       </c>
       <c r="C134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D134">
         <v>401500105</v>
@@ -5685,11 +5682,11 @@
         <v>36.652777777777779</v>
       </c>
       <c r="J134" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L134" s="3"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>42</v>
       </c>
@@ -5697,7 +5694,7 @@
         <v>2010</v>
       </c>
       <c r="C135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D135">
         <v>401500105</v>
@@ -5718,11 +5715,11 @@
         <v>40.819444444444443</v>
       </c>
       <c r="J135" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L135" s="3"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>42</v>
       </c>
@@ -5730,7 +5727,7 @@
         <v>2016</v>
       </c>
       <c r="C136" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D136">
         <v>401020440</v>
@@ -5751,11 +5748,11 @@
         <v>64.488888888888894</v>
       </c>
       <c r="J136" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L136" s="3"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>43</v>
       </c>
@@ -5763,7 +5760,7 @@
         <v>2006</v>
       </c>
       <c r="C137" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D137">
         <v>400980364</v>
@@ -5784,11 +5781,11 @@
         <v>56.15</v>
       </c>
       <c r="J137" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L137" s="3"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>43</v>
       </c>
@@ -5796,7 +5793,7 @@
         <v>2010</v>
       </c>
       <c r="C138" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D138">
         <v>107230084</v>
@@ -5817,11 +5814,11 @@
         <v>41.972222222222221</v>
       </c>
       <c r="J138" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L138" s="3"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>43</v>
       </c>
@@ -5829,7 +5826,7 @@
         <v>2016</v>
       </c>
       <c r="C139" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D139">
         <v>106660080</v>
@@ -5850,11 +5847,11 @@
         <v>50.591666666666669</v>
       </c>
       <c r="J139" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L139" s="3"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>44</v>
       </c>
@@ -5862,7 +5859,7 @@
         <v>2006</v>
       </c>
       <c r="C140" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D140">
         <v>401150989</v>
@@ -5883,11 +5880,11 @@
         <v>48.280555555555559</v>
       </c>
       <c r="J140" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L140" s="3"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>44</v>
       </c>
@@ -5895,7 +5892,7 @@
         <v>2010</v>
       </c>
       <c r="C141" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D141">
         <v>401300560</v>
@@ -5916,11 +5913,11 @@
         <v>47.652777777777779</v>
       </c>
       <c r="J141" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L141" s="3"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>44</v>
       </c>
@@ -5928,7 +5925,7 @@
         <v>2016</v>
       </c>
       <c r="C142" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D142">
         <v>401140145</v>
@@ -5949,11 +5946,11 @@
         <v>59.355555555555554</v>
       </c>
       <c r="J142" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L142" s="3"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>45</v>
       </c>
@@ -5961,7 +5958,7 @@
         <v>2006</v>
       </c>
       <c r="C143" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D143">
         <v>400830434</v>
@@ -5982,11 +5979,11 @@
         <v>63.741666666666667</v>
       </c>
       <c r="J143" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L143" s="3"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>45</v>
       </c>
@@ -5994,7 +5991,7 @@
         <v>2010</v>
       </c>
       <c r="C144" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D144">
         <v>401140587</v>
@@ -6015,11 +6012,11 @@
         <v>53.044444444444444</v>
       </c>
       <c r="J144" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L144" s="3"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>45</v>
       </c>
@@ -6027,7 +6024,7 @@
         <v>2016</v>
       </c>
       <c r="C145" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D145">
         <v>109020177</v>
@@ -6048,11 +6045,11 @@
         <v>41.422222222222224</v>
       </c>
       <c r="J145" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L145" s="3"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -6060,7 +6057,7 @@
         <v>2006</v>
       </c>
       <c r="C146" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D146">
         <v>401700924</v>
@@ -6081,11 +6078,11 @@
         <v>35.661111111111111</v>
       </c>
       <c r="J146" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L146" s="3"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>46</v>
       </c>
@@ -6093,7 +6090,7 @@
         <v>2010</v>
       </c>
       <c r="C147" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D147">
         <v>401170887</v>
@@ -6114,11 +6111,11 @@
         <v>51.99722222222222</v>
       </c>
       <c r="J147" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L147" s="3"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>46</v>
       </c>
@@ -6126,7 +6123,7 @@
         <v>2016</v>
       </c>
       <c r="C148" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D148">
         <v>401500657</v>
@@ -6147,11 +6144,11 @@
         <v>46.738888888888887</v>
       </c>
       <c r="J148" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L148" s="3"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>47</v>
       </c>
@@ -6159,7 +6156,7 @@
         <v>2006</v>
       </c>
       <c r="C149" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D149">
         <v>401240551</v>
@@ -6180,11 +6177,11 @@
         <v>45.388888888888886</v>
       </c>
       <c r="J149" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L149" s="3"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>47</v>
       </c>
@@ -6192,7 +6189,7 @@
         <v>2010</v>
       </c>
       <c r="C150" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D150">
         <v>401240551</v>
@@ -6213,11 +6210,11 @@
         <v>49.555555555555557</v>
       </c>
       <c r="J150" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L150" s="3"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>47</v>
       </c>
@@ -6225,7 +6222,7 @@
         <v>2016</v>
       </c>
       <c r="C151" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D151">
         <v>401240551</v>
@@ -6246,11 +6243,11 @@
         <v>55.694444444444443</v>
       </c>
       <c r="J151" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L151" s="3"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>48</v>
       </c>
@@ -6258,7 +6255,7 @@
         <v>2006</v>
       </c>
       <c r="C152" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D152">
         <v>106050898</v>
@@ -6279,11 +6276,11 @@
         <v>42.730555555555554</v>
       </c>
       <c r="J152" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L152" s="3"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>48</v>
       </c>
@@ -6291,7 +6288,7 @@
         <v>2010</v>
       </c>
       <c r="C153" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D153">
         <v>501660396</v>
@@ -6312,11 +6309,11 @@
         <v>53.161111111111111</v>
       </c>
       <c r="J153" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L153" s="3"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>48</v>
       </c>
@@ -6324,7 +6321,7 @@
         <v>2016</v>
       </c>
       <c r="C154" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D154">
         <v>501660396</v>
@@ -6345,11 +6342,11 @@
         <v>59.3</v>
       </c>
       <c r="J154" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L154" s="3"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>49</v>
       </c>
@@ -6357,7 +6354,7 @@
         <v>2006</v>
       </c>
       <c r="C155" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D155">
         <v>105060579</v>
@@ -6378,11 +6375,11 @@
         <v>47.155555555555559</v>
       </c>
       <c r="J155" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L155" s="3"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>49</v>
       </c>
@@ -6390,7 +6387,7 @@
         <v>2010</v>
       </c>
       <c r="C156" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D156">
         <v>105060579</v>
@@ -6411,11 +6408,11 @@
         <v>51.322222222222223</v>
       </c>
       <c r="J156" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L156" s="3"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>49</v>
       </c>
@@ -6423,7 +6420,7 @@
         <v>2016</v>
       </c>
       <c r="C157" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D157">
         <v>105060579</v>
@@ -6444,11 +6441,11 @@
         <v>57.461111111111109</v>
       </c>
       <c r="J157" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L157" s="3"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>50</v>
       </c>
@@ -6456,7 +6453,7 @@
         <v>2006</v>
       </c>
       <c r="C158" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D158">
         <v>700750997</v>
@@ -6477,11 +6474,11 @@
         <v>42.833333333333336</v>
       </c>
       <c r="J158" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L158" s="3"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>50</v>
       </c>
@@ -6489,7 +6486,7 @@
         <v>2010</v>
       </c>
       <c r="C159" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D159">
         <v>700750997</v>
@@ -6510,11 +6507,11 @@
         <v>47</v>
       </c>
       <c r="J159" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L159" s="3"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>50</v>
       </c>
@@ -6522,7 +6519,7 @@
         <v>2016</v>
       </c>
       <c r="C160" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D160">
         <v>700750997</v>
@@ -6543,11 +6540,11 @@
         <v>53.138888888888886</v>
       </c>
       <c r="J160" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L160" s="3"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>51</v>
       </c>
@@ -6555,7 +6552,7 @@
         <v>2006</v>
       </c>
       <c r="C161" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D161">
         <v>502480690</v>
@@ -6576,11 +6573,11 @@
         <v>38.094444444444441</v>
       </c>
       <c r="J161" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L161" s="3"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>51</v>
       </c>
@@ -6588,13 +6585,13 @@
         <v>2010</v>
       </c>
       <c r="C162" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D162">
         <v>900330681</v>
       </c>
       <c r="E162" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F162" t="s">
         <v>80</v>
@@ -6609,11 +6606,11 @@
         <v>59.077777777777776</v>
       </c>
       <c r="J162" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L162" s="3"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>51</v>
       </c>
@@ -6621,7 +6618,7 @@
         <v>2016</v>
       </c>
       <c r="C163" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D163">
         <v>203770818</v>
@@ -6642,11 +6639,11 @@
         <v>53.68611111111111</v>
       </c>
       <c r="J163" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L163" s="3"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>52</v>
       </c>
@@ -6654,7 +6651,7 @@
         <v>2006</v>
       </c>
       <c r="C164" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D164">
         <v>501100821</v>
@@ -6675,11 +6672,11 @@
         <v>60.588888888888889</v>
       </c>
       <c r="J164" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L164" s="3"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>52</v>
       </c>
@@ -6687,7 +6684,7 @@
         <v>2010</v>
       </c>
       <c r="C165" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D165">
         <v>105860992</v>
@@ -6708,11 +6705,11 @@
         <v>47.611111111111114</v>
       </c>
       <c r="J165" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L165" s="3"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>52</v>
       </c>
@@ -6720,7 +6717,7 @@
         <v>2016</v>
       </c>
       <c r="C166" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D166">
         <v>105860992</v>
@@ -6741,11 +6738,11 @@
         <v>53.75</v>
       </c>
       <c r="J166" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L166" s="3"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>53</v>
       </c>
@@ -6753,7 +6750,7 @@
         <v>2006</v>
       </c>
       <c r="C167" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D167">
         <v>501330943</v>
@@ -6774,11 +6771,11 @@
         <v>55.833333333333336</v>
       </c>
       <c r="J167" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L167" s="3"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>53</v>
       </c>
@@ -6786,7 +6783,7 @@
         <v>2010</v>
       </c>
       <c r="C168" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D168">
         <v>501330943</v>
@@ -6807,11 +6804,11 @@
         <v>60</v>
       </c>
       <c r="J168" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L168" s="3"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>53</v>
       </c>
@@ -6819,7 +6816,7 @@
         <v>2016</v>
       </c>
       <c r="C169" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D169">
         <v>501320552</v>
@@ -6840,11 +6837,11 @@
         <v>66.138888888888886</v>
       </c>
       <c r="J169" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L169" s="3"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>54</v>
       </c>
@@ -6852,7 +6849,7 @@
         <v>2006</v>
       </c>
       <c r="C170" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D170">
         <v>601100592</v>
@@ -6873,11 +6870,11 @@
         <v>52.211111111111109</v>
       </c>
       <c r="J170" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L170" s="3"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>54</v>
       </c>
@@ -6885,7 +6882,7 @@
         <v>2010</v>
       </c>
       <c r="C171" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D171">
         <v>601100592</v>
@@ -6906,11 +6903,11 @@
         <v>56.37777777777778</v>
       </c>
       <c r="J171" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L171" s="3"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>54</v>
       </c>
@@ -6918,7 +6915,7 @@
         <v>2016</v>
       </c>
       <c r="C172" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D172">
         <v>501600676</v>
@@ -6939,11 +6936,11 @@
         <v>60.355555555555554</v>
       </c>
       <c r="J172" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L172" s="3"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>55</v>
       </c>
@@ -6951,7 +6948,7 @@
         <v>2006</v>
       </c>
       <c r="C173" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D173">
         <v>502300052</v>
@@ -6972,11 +6969,11 @@
         <v>40.083333333333336</v>
       </c>
       <c r="J173" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L173" s="3"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>55</v>
       </c>
@@ -6984,7 +6981,7 @@
         <v>2010</v>
       </c>
       <c r="C174" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D174">
         <v>502300052</v>
@@ -7005,11 +7002,11 @@
         <v>44.25</v>
       </c>
       <c r="J174" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L174" s="3"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>55</v>
       </c>
@@ -7017,7 +7014,7 @@
         <v>2016</v>
       </c>
       <c r="C175" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D175">
         <v>502300052</v>
@@ -7038,11 +7035,11 @@
         <v>50.388888888888886</v>
       </c>
       <c r="J175" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L175" s="3"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>56</v>
       </c>
@@ -7050,7 +7047,7 @@
         <v>2006</v>
       </c>
       <c r="C176" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D176">
         <v>204070355</v>
@@ -7071,11 +7068,11 @@
         <v>40.736111111111114</v>
       </c>
       <c r="J176" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L176" s="3"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>56</v>
       </c>
@@ -7083,7 +7080,7 @@
         <v>2010</v>
       </c>
       <c r="C177" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D177">
         <v>501240368</v>
@@ -7104,11 +7101,11 @@
         <v>62.666666666666664</v>
       </c>
       <c r="J177" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L177" s="3"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>56</v>
       </c>
@@ -7116,7 +7113,7 @@
         <v>2016</v>
       </c>
       <c r="C178" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D178">
         <v>501990796</v>
@@ -7137,11 +7134,11 @@
         <v>54.238888888888887</v>
       </c>
       <c r="J178" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L178" s="3"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>57</v>
       </c>
@@ -7149,7 +7146,7 @@
         <v>2006</v>
       </c>
       <c r="C179" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D179">
         <v>501770387</v>
@@ -7170,11 +7167,11 @@
         <v>46.991666666666667</v>
       </c>
       <c r="J179" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L179" s="3"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>57</v>
       </c>
@@ -7182,7 +7179,7 @@
         <v>2010</v>
       </c>
       <c r="C180" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D180">
         <v>501770387</v>
@@ -7203,11 +7200,11 @@
         <v>51.158333333333331</v>
       </c>
       <c r="J180" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L180" s="3"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>57</v>
       </c>
@@ -7215,7 +7212,7 @@
         <v>2016</v>
       </c>
       <c r="C181" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D181">
         <v>501790160</v>
@@ -7236,11 +7233,11 @@
         <v>57.125</v>
       </c>
       <c r="J181" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L181" s="3"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>58</v>
       </c>
@@ -7248,7 +7245,7 @@
         <v>2006</v>
       </c>
       <c r="C182" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D182">
         <v>501490183</v>
@@ -7269,11 +7266,11 @@
         <v>52.083333333333336</v>
       </c>
       <c r="J182" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L182" s="3"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>58</v>
       </c>
@@ -7281,7 +7278,7 @@
         <v>2010</v>
       </c>
       <c r="C183" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D183">
         <v>501490183</v>
@@ -7302,11 +7299,11 @@
         <v>56.25</v>
       </c>
       <c r="J183" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L183" s="3"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>58</v>
       </c>
@@ -7314,7 +7311,7 @@
         <v>2016</v>
       </c>
       <c r="C184" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D184">
         <v>503330085</v>
@@ -7335,11 +7332,11 @@
         <v>33.333333333333336</v>
       </c>
       <c r="J184" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L184" s="3"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>59</v>
       </c>
@@ -7347,13 +7344,13 @@
         <v>2006</v>
       </c>
       <c r="C185" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D185">
         <v>501900201</v>
       </c>
       <c r="E185" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F185" t="s">
         <v>80</v>
@@ -7368,11 +7365,11 @@
         <v>45.419444444444444</v>
       </c>
       <c r="J185" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L185" s="3"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>59</v>
       </c>
@@ -7380,13 +7377,13 @@
         <v>2010</v>
       </c>
       <c r="C186" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D186">
         <v>501870210</v>
       </c>
       <c r="E186" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F186" t="s">
         <v>80</v>
@@ -7401,11 +7398,11 @@
         <v>50.413888888888891</v>
       </c>
       <c r="J186" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L186" s="3"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>59</v>
       </c>
@@ -7413,13 +7410,13 @@
         <v>2016</v>
       </c>
       <c r="C187" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D187">
         <v>601960844</v>
       </c>
       <c r="E187" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F187" t="s">
         <v>80</v>
@@ -7434,11 +7431,11 @@
         <v>50.56388888888889</v>
       </c>
       <c r="J187" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L187" s="3"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>60</v>
       </c>
@@ -7446,7 +7443,7 @@
         <v>2006</v>
       </c>
       <c r="C188" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D188">
         <v>501500753</v>
@@ -7467,11 +7464,11 @@
         <v>51.894444444444446</v>
       </c>
       <c r="J188" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L188" s="3"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>60</v>
       </c>
@@ -7479,7 +7476,7 @@
         <v>2010</v>
       </c>
       <c r="C189" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D189">
         <v>501500753</v>
@@ -7500,11 +7497,11 @@
         <v>56.06111111111111</v>
       </c>
       <c r="J189" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L189" s="3"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>60</v>
       </c>
@@ -7512,7 +7509,7 @@
         <v>2016</v>
       </c>
       <c r="C190" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D190">
         <v>501770869</v>
@@ -7533,11 +7530,11 @@
         <v>57.644444444444446</v>
       </c>
       <c r="J190" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L190" s="3"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>61</v>
       </c>
@@ -7545,7 +7542,7 @@
         <v>2006</v>
       </c>
       <c r="C191" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D191" s="1">
         <v>106070406</v>
@@ -7566,11 +7563,11 @@
         <v>42.713888888888889</v>
       </c>
       <c r="J191" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L191" s="3"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>61</v>
       </c>
@@ -7578,7 +7575,7 @@
         <v>2010</v>
       </c>
       <c r="C192" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D192">
         <v>501980847</v>
@@ -7599,11 +7596,11 @@
         <v>48.241666666666667</v>
       </c>
       <c r="J192" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L192" s="3"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>61</v>
       </c>
@@ -7611,7 +7608,7 @@
         <v>2016</v>
       </c>
       <c r="C193" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D193">
         <v>501980847</v>
@@ -7632,11 +7629,11 @@
         <v>54.380555555555553</v>
       </c>
       <c r="J193" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L193" s="3"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>62</v>
       </c>
@@ -7644,7 +7641,7 @@
         <v>2006</v>
       </c>
       <c r="C194" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D194">
         <v>106900516</v>
@@ -7665,11 +7662,11 @@
         <v>39.272222222222226</v>
       </c>
       <c r="J194" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L194" s="3"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>62</v>
       </c>
@@ -7677,7 +7674,7 @@
         <v>2010</v>
       </c>
       <c r="C195" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D195">
         <v>600690226</v>
@@ -7698,11 +7695,11 @@
         <v>65.24444444444444</v>
       </c>
       <c r="J195" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L195" s="3"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>62</v>
       </c>
@@ -7710,7 +7707,7 @@
         <v>2016</v>
       </c>
       <c r="C196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D196">
         <v>602270303</v>
@@ -7731,11 +7728,11 @@
         <v>46.838888888888889</v>
       </c>
       <c r="J196" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L196" s="3"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>63</v>
       </c>
@@ -7743,7 +7740,7 @@
         <v>2006</v>
       </c>
       <c r="C197" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D197">
         <v>601550699</v>
@@ -7764,11 +7761,11 @@
         <v>45.366666666666667</v>
       </c>
       <c r="J197" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L197" s="3"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>63</v>
       </c>
@@ -7776,7 +7773,7 @@
         <v>2010</v>
       </c>
       <c r="C198" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D198">
         <v>502620807</v>
@@ -7797,11 +7794,11 @@
         <v>39.680555555555557</v>
       </c>
       <c r="J198" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L198" s="3"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>63</v>
       </c>
@@ -7809,7 +7806,7 @@
         <v>2016</v>
       </c>
       <c r="C199" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D199">
         <v>502620807</v>
@@ -7830,11 +7827,11 @@
         <v>45.819444444444443</v>
       </c>
       <c r="J199" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L199" s="3"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>64</v>
       </c>
@@ -7842,7 +7839,7 @@
         <v>2006</v>
       </c>
       <c r="C200" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D200" s="1">
         <v>501410976</v>
@@ -7863,11 +7860,11 @@
         <v>53.758333333333333</v>
       </c>
       <c r="J200" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L200" s="3"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>64</v>
       </c>
@@ -7875,7 +7872,7 @@
         <v>2010</v>
       </c>
       <c r="C201" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D201">
         <v>103600832</v>
@@ -7896,11 +7893,11 @@
         <v>61.844444444444441</v>
       </c>
       <c r="J201" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L201" s="3"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>64</v>
       </c>
@@ -7908,7 +7905,7 @@
         <v>2016</v>
       </c>
       <c r="C202" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D202">
         <v>602670983</v>
@@ -7929,11 +7926,11 @@
         <v>41.111111111111114</v>
       </c>
       <c r="J202" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L202" s="3"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>65</v>
       </c>
@@ -7941,7 +7938,7 @@
         <v>2006</v>
       </c>
       <c r="C203" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D203">
         <v>601670672</v>
@@ -7962,11 +7959,11 @@
         <v>43.836111111111109</v>
       </c>
       <c r="J203" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L203" s="3"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>65</v>
       </c>
@@ -7974,7 +7971,7 @@
         <v>2010</v>
       </c>
       <c r="C204" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D204">
         <v>601670672</v>
@@ -7995,11 +7992,11 @@
         <v>48.00277777777778</v>
       </c>
       <c r="J204" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L204" s="3"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>65</v>
       </c>
@@ -8007,7 +8004,7 @@
         <v>2016</v>
       </c>
       <c r="C205" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D205">
         <v>602210668</v>
@@ -8028,11 +8025,11 @@
         <v>47.4</v>
       </c>
       <c r="J205" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L205" s="3"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>66</v>
       </c>
@@ -8040,7 +8037,7 @@
         <v>2006</v>
       </c>
       <c r="C206" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D206">
         <v>601480428</v>
@@ -8061,11 +8058,11 @@
         <v>46.569444444444443</v>
       </c>
       <c r="J206" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L206" s="3"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>66</v>
       </c>
@@ -8073,7 +8070,7 @@
         <v>2010</v>
       </c>
       <c r="C207" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D207">
         <v>601480428</v>
@@ -8094,11 +8091,11 @@
         <v>50.736111111111114</v>
       </c>
       <c r="J207" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L207" s="3"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>66</v>
       </c>
@@ -8106,7 +8103,7 @@
         <v>2016</v>
       </c>
       <c r="C208" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D208">
         <v>601480428</v>
@@ -8127,28 +8124,28 @@
         <v>56.875</v>
       </c>
       <c r="J208" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L208" s="3"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B209">
         <v>2006</v>
       </c>
       <c r="C209" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D209">
         <v>900110306</v>
       </c>
       <c r="E209" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F209" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G209" s="5">
         <v>38788</v>
@@ -8160,19 +8157,19 @@
         <v>58.702777777777776</v>
       </c>
       <c r="J209" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L209" s="3"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B210">
         <v>2010</v>
       </c>
       <c r="C210" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D210">
         <v>602010824</v>
@@ -8193,19 +8190,19 @@
         <v>43.797222222222224</v>
       </c>
       <c r="J210" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L210" s="3"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B211">
         <v>2016</v>
       </c>
       <c r="C211" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D211">
         <v>601740642</v>
@@ -8226,11 +8223,11 @@
         <v>56.241666666666667</v>
       </c>
       <c r="J211" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L211" s="3"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>67</v>
       </c>
@@ -8238,7 +8235,7 @@
         <v>2006</v>
       </c>
       <c r="C212" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D212">
         <v>601620830</v>
@@ -8259,11 +8256,11 @@
         <v>44.325000000000003</v>
       </c>
       <c r="J212" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L212" s="3"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>67</v>
       </c>
@@ -8271,7 +8268,7 @@
         <v>2010</v>
       </c>
       <c r="C213" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D213">
         <v>602390996</v>
@@ -8292,11 +8289,11 @@
         <v>38.855555555555554</v>
       </c>
       <c r="J213" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L213" s="3"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>67</v>
       </c>
@@ -8304,7 +8301,7 @@
         <v>2016</v>
       </c>
       <c r="C214" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D214">
         <v>601310946</v>
@@ -8325,11 +8322,11 @@
         <v>60.208333333333336</v>
       </c>
       <c r="J214" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L214" s="3"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>68</v>
       </c>
@@ -8337,7 +8334,7 @@
         <v>2006</v>
       </c>
       <c r="C215" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D215">
         <v>105700403</v>
@@ -8358,11 +8355,11 @@
         <v>44.361111111111114</v>
       </c>
       <c r="J215" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L215" s="3"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>68</v>
       </c>
@@ -8370,7 +8367,7 @@
         <v>2010</v>
       </c>
       <c r="C216" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D216">
         <v>105700403</v>
@@ -8391,11 +8388,11 @@
         <v>48.527777777777779</v>
       </c>
       <c r="J216" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L216" s="3"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>68</v>
       </c>
@@ -8403,7 +8400,7 @@
         <v>2016</v>
       </c>
       <c r="C217" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D217">
         <v>105700403</v>
@@ -8424,11 +8421,11 @@
         <v>54.666666666666664</v>
       </c>
       <c r="J217" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L217" s="3"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>69</v>
       </c>
@@ -8436,7 +8433,7 @@
         <v>2006</v>
       </c>
       <c r="C218" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D218">
         <v>105300752</v>
@@ -8457,11 +8454,11 @@
         <v>46.083333333333336</v>
       </c>
       <c r="J218" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L218" s="3"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>69</v>
       </c>
@@ -8469,7 +8466,7 @@
         <v>2010</v>
       </c>
       <c r="C219" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D219">
         <v>106890057</v>
@@ -8490,11 +8487,11 @@
         <v>43.522222222222226</v>
       </c>
       <c r="J219" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L219" s="3"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>69</v>
       </c>
@@ -8502,7 +8499,7 @@
         <v>2016</v>
       </c>
       <c r="C220" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D220">
         <v>106890057</v>
@@ -8523,11 +8520,11 @@
         <v>49.661111111111111</v>
       </c>
       <c r="J220" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L220" s="3"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>70</v>
       </c>
@@ -8535,7 +8532,7 @@
         <v>2006</v>
       </c>
       <c r="C221" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D221">
         <v>601250463</v>
@@ -8556,11 +8553,11 @@
         <v>49.736111111111114</v>
       </c>
       <c r="J221" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L221" s="3"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>70</v>
       </c>
@@ -8568,7 +8565,7 @@
         <v>2010</v>
       </c>
       <c r="C222" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D222">
         <v>501710389</v>
@@ -8589,11 +8586,11 @@
         <v>52.169444444444444</v>
       </c>
       <c r="J222" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L222" s="3"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>70</v>
       </c>
@@ -8601,7 +8598,7 @@
         <v>2016</v>
       </c>
       <c r="C223" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D223">
         <v>106260818</v>
@@ -8622,11 +8619,11 @@
         <v>52.102777777777774</v>
       </c>
       <c r="J223" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L223" s="3"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>71</v>
       </c>
@@ -8634,7 +8631,7 @@
         <v>2006</v>
       </c>
       <c r="C224" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D224">
         <v>401260011</v>
@@ -8655,11 +8652,11 @@
         <v>45.152777777777779</v>
       </c>
       <c r="J224" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L224" s="3"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>71</v>
       </c>
@@ -8667,7 +8664,7 @@
         <v>2010</v>
       </c>
       <c r="C225" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D225">
         <v>401260011</v>
@@ -8688,11 +8685,11 @@
         <v>49.319444444444443</v>
       </c>
       <c r="J225" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L225" s="3"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>71</v>
       </c>
@@ -8700,7 +8697,7 @@
         <v>2016</v>
       </c>
       <c r="C226" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D226">
         <v>501020541</v>
@@ -8721,11 +8718,11 @@
         <v>72.963888888888889</v>
       </c>
       <c r="J226" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L226" s="3"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>72</v>
       </c>
@@ -8733,7 +8730,7 @@
         <v>2006</v>
       </c>
       <c r="C227" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D227">
         <v>700740905</v>
@@ -8754,11 +8751,11 @@
         <v>43.086111111111109</v>
       </c>
       <c r="J227" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L227" s="3"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>72</v>
       </c>
@@ -8766,7 +8763,7 @@
         <v>2010</v>
       </c>
       <c r="C228" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D228">
         <v>107590539</v>
@@ -8787,11 +8784,11 @@
         <v>48.463888888888889</v>
       </c>
       <c r="J228" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L228" s="3"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>72</v>
       </c>
@@ -8799,16 +8796,16 @@
         <v>2016</v>
       </c>
       <c r="C229" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D229">
         <v>107590539</v>
       </c>
       <c r="E229" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F229" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G229" s="5">
         <v>42553</v>
@@ -8820,11 +8817,11 @@
         <v>54.602777777777774</v>
       </c>
       <c r="J229" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L229" s="3"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>73</v>
       </c>
@@ -8832,7 +8829,7 @@
         <v>2006</v>
       </c>
       <c r="C230" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D230">
         <v>700340706</v>
@@ -8853,11 +8850,11 @@
         <v>62.266666666666666</v>
       </c>
       <c r="J230" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L230" s="3"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>73</v>
       </c>
@@ -8865,7 +8862,7 @@
         <v>2010</v>
       </c>
       <c r="C231" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D231">
         <v>401230918</v>
@@ -8886,11 +8883,11 @@
         <v>50.672222222222224</v>
       </c>
       <c r="J231" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L231" s="3"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>73</v>
       </c>
@@ -8898,7 +8895,7 @@
         <v>2016</v>
       </c>
       <c r="C232" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D232">
         <v>501820428</v>
@@ -8919,11 +8916,11 @@
         <v>56.80833333333333</v>
       </c>
       <c r="J232" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L232" s="3"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>74</v>
       </c>
@@ -8931,16 +8928,16 @@
         <v>2006</v>
       </c>
       <c r="C233" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D233">
         <v>301340932</v>
       </c>
       <c r="E233" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F233" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G233" s="5">
         <v>38788</v>
@@ -8952,11 +8949,11 @@
         <v>67.727777777777774</v>
       </c>
       <c r="J233" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L233" s="3"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>74</v>
       </c>
@@ -8964,13 +8961,13 @@
         <v>2010</v>
       </c>
       <c r="C234" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D234">
         <v>700900647</v>
       </c>
       <c r="E234" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F234" t="s">
         <v>80</v>
@@ -8985,11 +8982,11 @@
         <v>41.966666666666669</v>
       </c>
       <c r="J234" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L234" s="3"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>74</v>
       </c>
@@ -8997,7 +8994,7 @@
         <v>2016</v>
       </c>
       <c r="C235" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D235">
         <v>701330745</v>
@@ -9018,11 +9015,11 @@
         <v>36.772222222222226</v>
       </c>
       <c r="J235" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L235" s="3"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>75</v>
       </c>
@@ -9030,7 +9027,7 @@
         <v>2006</v>
       </c>
       <c r="C236" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D236">
         <v>700780736</v>
@@ -9051,11 +9048,11 @@
         <v>41.988888888888887</v>
       </c>
       <c r="J236" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L236" s="3"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>75</v>
       </c>
@@ -9063,7 +9060,7 @@
         <v>2010</v>
       </c>
       <c r="C237" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D237">
         <v>900610327</v>
@@ -9084,11 +9081,11 @@
         <v>53.225000000000001</v>
       </c>
       <c r="J237" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L237" s="3"/>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>75</v>
       </c>
@@ -9096,7 +9093,7 @@
         <v>2016</v>
       </c>
       <c r="C238" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D238">
         <v>502640709</v>
@@ -9117,11 +9114,11 @@
         <v>45.411111111111111</v>
       </c>
       <c r="J238" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L238" s="3"/>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>76</v>
       </c>
@@ -9129,7 +9126,7 @@
         <v>2006</v>
       </c>
       <c r="C239" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D239">
         <v>700690810</v>
@@ -9150,11 +9147,11 @@
         <v>44.736111111111114</v>
       </c>
       <c r="J239" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L239" s="3"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>76</v>
       </c>
@@ -9162,7 +9159,7 @@
         <v>2010</v>
       </c>
       <c r="C240" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D240">
         <v>701070762</v>
@@ -9183,11 +9180,11 @@
         <v>36.755555555555553</v>
       </c>
       <c r="J240" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L240" s="3"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>76</v>
       </c>
@@ -9195,7 +9192,7 @@
         <v>2016</v>
       </c>
       <c r="C241" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D241">
         <v>701070762</v>
@@ -9216,11 +9213,11 @@
         <v>42.894444444444446</v>
       </c>
       <c r="J241" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L241" s="3"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>77</v>
       </c>
@@ -9228,7 +9225,7 @@
         <v>2006</v>
       </c>
       <c r="C242" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D242">
         <v>202921486</v>
@@ -9249,11 +9246,11 @@
         <v>51.802777777777777</v>
       </c>
       <c r="J242" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L242" s="3"/>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>77</v>
       </c>
@@ -9261,7 +9258,7 @@
         <v>2010</v>
       </c>
       <c r="C243" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D243">
         <v>202921486</v>
@@ -9282,11 +9279,11 @@
         <v>55.969444444444441</v>
       </c>
       <c r="J243" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L243" s="3"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>77</v>
       </c>
@@ -9294,7 +9291,7 @@
         <v>2016</v>
       </c>
       <c r="C244" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D244">
         <v>202921486</v>
@@ -9315,7 +9312,7 @@
         <v>62.108333333333334</v>
       </c>
       <c r="J244" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L244" s="3"/>
     </row>

--- a/data/1-final_data/elected_mayors_age_gender.xlsx
+++ b/data/1-final_data/elected_mayors_age_gender.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusto/Desktop/UCR/Seminario/Github/DataCleaning/data/1-final_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE085C5-B93E-D446-8B1C-7872F9ACF2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F5EFDA-7660-B045-A16E-8C24C5600CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{9D75A18B-EEDA-43E5-B51F-451C34645EC7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="294">
   <si>
     <t>San José</t>
   </si>
@@ -685,9 +685,6 @@
   </si>
   <si>
     <t>Luis Alberto Villalobos Artavia</t>
-  </si>
-  <si>
-    <t>Aguirre (Quepos)</t>
   </si>
   <si>
     <t>Quepos</t>
@@ -1292,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FFA1C7-D3B2-453C-9912-74CA9FE3A0B8}">
   <dimension ref="A1:L244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1310,34 +1307,34 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" t="s">
         <v>283</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" t="s">
         <v>284</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I1" t="s">
         <v>288</v>
       </c>
-      <c r="D1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F1" t="s">
-        <v>287</v>
-      </c>
-      <c r="G1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H1" t="s">
-        <v>293</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>289</v>
-      </c>
-      <c r="J1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1369,7 +1366,7 @@
         <v>48.869444444444447</v>
       </c>
       <c r="J2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L2" s="4"/>
     </row>
@@ -1402,7 +1399,7 @@
         <v>53.036111111111111</v>
       </c>
       <c r="J3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1422,7 +1419,7 @@
         <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G4" s="5">
         <v>42553</v>
@@ -1434,7 +1431,7 @@
         <v>59.174999999999997</v>
       </c>
       <c r="J4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1445,7 +1442,7 @@
         <v>2006</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D5">
         <v>102700147</v>
@@ -1466,7 +1463,7 @@
         <v>66.736111111111114</v>
       </c>
       <c r="J5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1486,7 +1483,7 @@
         <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G6" s="5">
         <v>40310</v>
@@ -1498,7 +1495,7 @@
         <v>45.244444444444447</v>
       </c>
       <c r="J6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1518,7 +1515,7 @@
         <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G7" s="5">
         <v>42553</v>
@@ -1530,7 +1527,7 @@
         <v>51.383333333333333</v>
       </c>
       <c r="J7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1562,7 +1559,7 @@
         <v>32.583333333333336</v>
       </c>
       <c r="J8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1594,7 +1591,7 @@
         <v>36.75</v>
       </c>
       <c r="J9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1605,7 +1602,7 @@
         <v>2016</v>
       </c>
       <c r="C10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D10">
         <v>107200958</v>
@@ -1626,7 +1623,7 @@
         <v>47.575000000000003</v>
       </c>
       <c r="J10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1637,7 +1634,7 @@
         <v>2006</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D11">
         <v>104210587</v>
@@ -1658,7 +1655,7 @@
         <v>51.827777777777776</v>
       </c>
       <c r="J11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1690,7 +1687,7 @@
         <v>53.65</v>
       </c>
       <c r="J12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1722,7 +1719,7 @@
         <v>63.116666666666667</v>
       </c>
       <c r="J13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1733,7 +1730,7 @@
         <v>2006</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
@@ -1748,7 +1745,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="6"/>
       <c r="J14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1780,7 +1777,7 @@
         <v>52.727777777777774</v>
       </c>
       <c r="J15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1812,7 +1809,7 @@
         <v>47.591666666666669</v>
       </c>
       <c r="J16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1823,7 +1820,7 @@
         <v>2006</v>
       </c>
       <c r="C17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D17">
         <v>108100365</v>
@@ -1844,7 +1841,7 @@
         <v>34.444444444444443</v>
       </c>
       <c r="J17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1876,7 +1873,7 @@
         <v>52.255555555555553</v>
       </c>
       <c r="J18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1908,7 +1905,7 @@
         <v>64.919444444444451</v>
       </c>
       <c r="J19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1940,7 +1937,7 @@
         <v>37.319444444444443</v>
       </c>
       <c r="J20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1972,7 +1969,7 @@
         <v>41.486111111111114</v>
       </c>
       <c r="J21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2004,7 +2001,7 @@
         <v>47.625</v>
       </c>
       <c r="J22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2036,7 +2033,7 @@
         <v>50.69166666666667</v>
       </c>
       <c r="J23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2068,7 +2065,7 @@
         <v>54.858333333333334</v>
       </c>
       <c r="J24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -2100,7 +2097,7 @@
         <v>58.49722222222222</v>
       </c>
       <c r="J25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -2132,7 +2129,7 @@
         <v>43.408333333333331</v>
       </c>
       <c r="J26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -2164,7 +2161,7 @@
         <v>47.575000000000003</v>
       </c>
       <c r="J27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2196,7 +2193,7 @@
         <v>53.713888888888889</v>
       </c>
       <c r="J28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -2207,7 +2204,7 @@
         <v>2006</v>
       </c>
       <c r="C29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D29">
         <v>103450440</v>
@@ -2228,7 +2225,7 @@
         <v>59.180555555555557</v>
       </c>
       <c r="J29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2260,7 +2257,7 @@
         <v>56.222222222222221</v>
       </c>
       <c r="J30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2292,7 +2289,7 @@
         <v>58.386111111111113</v>
       </c>
       <c r="J31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2324,7 +2321,7 @@
         <v>45.119444444444447</v>
       </c>
       <c r="J32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -2356,7 +2353,7 @@
         <v>49.286111111111111</v>
       </c>
       <c r="J33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -2388,7 +2385,7 @@
         <v>46.333333333333336</v>
       </c>
       <c r="J34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -2399,7 +2396,7 @@
         <v>2006</v>
       </c>
       <c r="C35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D35">
         <v>104950995</v>
@@ -2420,7 +2417,7 @@
         <v>47.586111111111109</v>
       </c>
       <c r="J35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -2452,7 +2449,7 @@
         <v>54.469444444444441</v>
       </c>
       <c r="J36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -2484,7 +2481,7 @@
         <v>38.68611111111111</v>
       </c>
       <c r="J37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -2495,7 +2492,7 @@
         <v>2006</v>
       </c>
       <c r="C38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D38">
         <v>401210886</v>
@@ -2516,7 +2513,7 @@
         <v>53.194444444444443</v>
       </c>
       <c r="J38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -2548,7 +2545,7 @@
         <v>71.961111111111109</v>
       </c>
       <c r="J39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -2580,7 +2577,7 @@
         <v>52.391666666666666</v>
       </c>
       <c r="J40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L40" s="3"/>
     </row>
@@ -2592,7 +2589,7 @@
         <v>2006</v>
       </c>
       <c r="C41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D41">
         <v>105350228</v>
@@ -2613,7 +2610,7 @@
         <v>45.763888888888886</v>
       </c>
       <c r="J41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L41" s="3"/>
     </row>
@@ -2646,7 +2643,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="J42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L42" s="3"/>
     </row>
@@ -2679,7 +2676,7 @@
         <v>30.419444444444444</v>
       </c>
       <c r="J43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L43" s="3"/>
     </row>
@@ -2697,7 +2694,7 @@
         <v>601130988</v>
       </c>
       <c r="E44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F44" t="s">
         <v>80</v>
@@ -2712,7 +2709,7 @@
         <v>51.386111111111113</v>
       </c>
       <c r="J44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L44" s="3"/>
     </row>
@@ -2745,7 +2742,7 @@
         <v>55.552777777777777</v>
       </c>
       <c r="J45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L45" s="3"/>
     </row>
@@ -2766,7 +2763,7 @@
         <v>182</v>
       </c>
       <c r="F46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G46" s="5">
         <v>42553</v>
@@ -2778,7 +2775,7 @@
         <v>25.508333333333333</v>
       </c>
       <c r="J46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L46" s="3"/>
     </row>
@@ -2790,7 +2787,7 @@
         <v>2006</v>
       </c>
       <c r="C47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D47">
         <v>104250618</v>
@@ -2811,7 +2808,7 @@
         <v>52.905555555555559</v>
       </c>
       <c r="J47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L47" s="3"/>
     </row>
@@ -2844,7 +2841,7 @@
         <v>44.844444444444441</v>
       </c>
       <c r="J48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L48" s="3"/>
     </row>
@@ -2877,7 +2874,7 @@
         <v>36.333333333333336</v>
       </c>
       <c r="J49" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L49" s="3"/>
     </row>
@@ -2889,7 +2886,7 @@
         <v>2006</v>
       </c>
       <c r="C50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D50">
         <v>103200790</v>
@@ -2910,7 +2907,7 @@
         <v>61.677777777777777</v>
       </c>
       <c r="J50" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L50" s="3"/>
     </row>
@@ -2943,7 +2940,7 @@
         <v>39.708333333333336</v>
       </c>
       <c r="J51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L51" s="3"/>
     </row>
@@ -2976,7 +2973,7 @@
         <v>45.847222222222221</v>
       </c>
       <c r="J52" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L52" s="3"/>
     </row>
@@ -2997,7 +2994,7 @@
         <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G53" s="5">
         <v>38788</v>
@@ -3009,7 +3006,7 @@
         <v>39.533333333333331</v>
       </c>
       <c r="J53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L53" s="3"/>
     </row>
@@ -3030,7 +3027,7 @@
         <v>102</v>
       </c>
       <c r="F54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G54" s="5">
         <v>40310</v>
@@ -3042,7 +3039,7 @@
         <v>43.7</v>
       </c>
       <c r="J54" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L54" s="3"/>
     </row>
@@ -3063,7 +3060,7 @@
         <v>102</v>
       </c>
       <c r="F55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G55" s="5">
         <v>42553</v>
@@ -3075,7 +3072,7 @@
         <v>49.838888888888889</v>
       </c>
       <c r="J55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L55" s="3"/>
     </row>
@@ -3087,7 +3084,7 @@
         <v>2006</v>
       </c>
       <c r="C56" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D56">
         <v>106730022</v>
@@ -3108,7 +3105,7 @@
         <v>40.077777777777776</v>
       </c>
       <c r="J56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L56" s="3"/>
     </row>
@@ -3141,7 +3138,7 @@
         <v>50.06111111111111</v>
       </c>
       <c r="J57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L57" s="3"/>
     </row>
@@ -3174,7 +3171,7 @@
         <v>36.163888888888891</v>
       </c>
       <c r="J58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L58" s="3"/>
     </row>
@@ -3207,7 +3204,7 @@
         <v>32.519444444444446</v>
       </c>
       <c r="J59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L59" s="3"/>
     </row>
@@ -3240,7 +3237,7 @@
         <v>36.68611111111111</v>
       </c>
       <c r="J60" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L60" s="3"/>
     </row>
@@ -3273,7 +3270,7 @@
         <v>59.852777777777774</v>
       </c>
       <c r="J61" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L61" s="3"/>
     </row>
@@ -3285,7 +3282,7 @@
         <v>2006</v>
       </c>
       <c r="C62" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D62">
         <v>102860801</v>
@@ -3306,7 +3303,7 @@
         <v>66.833333333333329</v>
       </c>
       <c r="J62" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L62" s="3"/>
     </row>
@@ -3339,7 +3336,7 @@
         <v>49.838888888888889</v>
       </c>
       <c r="J63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L63" s="3"/>
     </row>
@@ -3372,7 +3369,7 @@
         <v>55.977777777777774</v>
       </c>
       <c r="J64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L64" s="3"/>
     </row>
@@ -3384,7 +3381,7 @@
         <v>2006</v>
       </c>
       <c r="C65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D65">
         <v>601100342</v>
@@ -3405,7 +3402,7 @@
         <v>51.674999999999997</v>
       </c>
       <c r="J65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L65" s="3"/>
     </row>
@@ -3438,7 +3435,7 @@
         <v>59.505555555555553</v>
       </c>
       <c r="J66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L66" s="3"/>
     </row>
@@ -3471,7 +3468,7 @@
         <v>35.194444444444443</v>
       </c>
       <c r="J67" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L67" s="3"/>
     </row>
@@ -3483,7 +3480,7 @@
         <v>2006</v>
       </c>
       <c r="C68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D68">
         <v>202730416</v>
@@ -3504,7 +3501,7 @@
         <v>55.69166666666667</v>
       </c>
       <c r="J68" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L68" s="3"/>
     </row>
@@ -3537,7 +3534,7 @@
         <v>54.680555555555557</v>
       </c>
       <c r="J69" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L69" s="3"/>
     </row>
@@ -3570,7 +3567,7 @@
         <v>42.544444444444444</v>
       </c>
       <c r="J70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L70" s="3"/>
     </row>
@@ -3582,7 +3579,7 @@
         <v>2006</v>
       </c>
       <c r="C71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D71">
         <v>205690795</v>
@@ -3603,7 +3600,7 @@
         <v>23.994444444444444</v>
       </c>
       <c r="J71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L71" s="3"/>
     </row>
@@ -3636,7 +3633,7 @@
         <v>31.952777777777779</v>
       </c>
       <c r="J72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L72" s="3"/>
     </row>
@@ -3669,7 +3666,7 @@
         <v>38.091666666666669</v>
       </c>
       <c r="J73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L73" s="3"/>
     </row>
@@ -3702,7 +3699,7 @@
         <v>48.844444444444441</v>
       </c>
       <c r="J74" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L74" s="3"/>
     </row>
@@ -3735,7 +3732,7 @@
         <v>53.011111111111113</v>
       </c>
       <c r="J75" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L75" s="3"/>
     </row>
@@ -3768,7 +3765,7 @@
         <v>59.15</v>
       </c>
       <c r="J76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L76" s="3"/>
     </row>
@@ -3780,7 +3777,7 @@
         <v>2006</v>
       </c>
       <c r="C77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D77">
         <v>203000806</v>
@@ -3801,7 +3798,7 @@
         <v>51.055555555555557</v>
       </c>
       <c r="J77" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L77" s="3"/>
     </row>
@@ -3834,7 +3831,7 @@
         <v>49.119444444444447</v>
       </c>
       <c r="J78" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L78" s="3"/>
     </row>
@@ -3867,7 +3864,7 @@
         <v>62.991666666666667</v>
       </c>
       <c r="J79" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L79" s="3"/>
     </row>
@@ -3879,7 +3876,7 @@
         <v>2006</v>
       </c>
       <c r="C80" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D80">
         <v>202430681</v>
@@ -3900,7 +3897,7 @@
         <v>59.663888888888891</v>
       </c>
       <c r="J80" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L80" s="3"/>
     </row>
@@ -3933,7 +3930,7 @@
         <v>46.044444444444444</v>
       </c>
       <c r="J81" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L81" s="3"/>
     </row>
@@ -3966,7 +3963,7 @@
         <v>62.972222222222221</v>
       </c>
       <c r="J82" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L82" s="3"/>
     </row>
@@ -3999,7 +3996,7 @@
         <v>47.55833333333333</v>
       </c>
       <c r="J83" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L83" s="3"/>
     </row>
@@ -4032,7 +4029,7 @@
         <v>51.725000000000001</v>
       </c>
       <c r="J84" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L84" s="3"/>
     </row>
@@ -4065,7 +4062,7 @@
         <v>57.863888888888887</v>
       </c>
       <c r="J85" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L85" s="3"/>
     </row>
@@ -4077,7 +4074,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D86" s="1">
         <v>110470665</v>
@@ -4098,7 +4095,7 @@
         <v>26.463888888888889</v>
       </c>
       <c r="J86" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L86" s="3"/>
     </row>
@@ -4131,7 +4128,7 @@
         <v>45.038888888888891</v>
       </c>
       <c r="J87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L87" s="3"/>
     </row>
@@ -4164,7 +4161,7 @@
         <v>51.177777777777777</v>
       </c>
       <c r="J88" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L88" s="3"/>
     </row>
@@ -4197,7 +4194,7 @@
         <v>42.402777777777779</v>
       </c>
       <c r="J89" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L89" s="3"/>
     </row>
@@ -4230,7 +4227,7 @@
         <v>46.569444444444443</v>
       </c>
       <c r="J90" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L90" s="3"/>
     </row>
@@ -4263,7 +4260,7 @@
         <v>52.708333333333336</v>
       </c>
       <c r="J91" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L91" s="3"/>
     </row>
@@ -4275,7 +4272,7 @@
         <v>2006</v>
       </c>
       <c r="C92" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D92" s="1">
         <v>205250458</v>
@@ -4296,7 +4293,7 @@
         <v>28.25</v>
       </c>
       <c r="J92" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L92" s="3"/>
     </row>
@@ -4329,7 +4326,7 @@
         <v>47.236111111111114</v>
       </c>
       <c r="J93" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L93" s="3"/>
     </row>
@@ -4362,7 +4359,7 @@
         <v>54.886111111111113</v>
       </c>
       <c r="J94" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L94" s="3"/>
     </row>
@@ -4374,7 +4371,7 @@
         <v>2006</v>
       </c>
       <c r="C95" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D95">
         <v>203930500</v>
@@ -4395,7 +4392,7 @@
         <v>41.988888888888887</v>
       </c>
       <c r="J95" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L95" s="3"/>
     </row>
@@ -4428,7 +4425,7 @@
         <v>42.530555555555559</v>
       </c>
       <c r="J96" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L96" s="3"/>
     </row>
@@ -4461,7 +4458,7 @@
         <v>56.958333333333336</v>
       </c>
       <c r="J97" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L97" s="3"/>
     </row>
@@ -4494,7 +4491,7 @@
         <v>52.711111111111109</v>
       </c>
       <c r="J98" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L98" s="3"/>
     </row>
@@ -4527,7 +4524,7 @@
         <v>41.961111111111109</v>
       </c>
       <c r="J99" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L99" s="3"/>
     </row>
@@ -4560,7 +4557,7 @@
         <v>58.505555555555553</v>
       </c>
       <c r="J100" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L100" s="3"/>
     </row>
@@ -4572,7 +4569,7 @@
         <v>2006</v>
       </c>
       <c r="C101" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D101">
         <v>203300813</v>
@@ -4593,7 +4590,7 @@
         <v>37.794444444444444</v>
       </c>
       <c r="J101" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L101" s="3"/>
     </row>
@@ -4626,7 +4623,7 @@
         <v>42.327777777777776</v>
       </c>
       <c r="J102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L102" s="3"/>
     </row>
@@ -4659,7 +4656,7 @@
         <v>50.633333333333333</v>
       </c>
       <c r="J103" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L103" s="3"/>
     </row>
@@ -4671,7 +4668,7 @@
         <v>2006</v>
       </c>
       <c r="C104" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D104">
         <v>203990278</v>
@@ -4692,7 +4689,7 @@
         <v>41.455555555555556</v>
       </c>
       <c r="J104" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L104" s="3"/>
     </row>
@@ -4725,7 +4722,7 @@
         <v>62.408333333333331</v>
       </c>
       <c r="J105" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L105" s="3"/>
     </row>
@@ -4758,7 +4755,7 @@
         <v>41.080555555555556</v>
       </c>
       <c r="J106" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L106" s="3"/>
     </row>
@@ -4791,7 +4788,7 @@
         <v>35.6</v>
       </c>
       <c r="J107" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L107" s="3"/>
     </row>
@@ -4824,7 +4821,7 @@
         <v>39.766666666666666</v>
       </c>
       <c r="J108" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L108" s="3"/>
     </row>
@@ -4857,7 +4854,7 @@
         <v>45.905555555555559</v>
       </c>
       <c r="J109" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L109" s="3"/>
     </row>
@@ -4890,7 +4887,7 @@
         <v>44.552777777777777</v>
       </c>
       <c r="J110" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L110" s="3"/>
     </row>
@@ -4923,7 +4920,7 @@
         <v>57.733333333333334</v>
       </c>
       <c r="J111" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L111" s="3"/>
     </row>
@@ -4941,7 +4938,7 @@
         <v>302490064</v>
       </c>
       <c r="E112" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F112" t="s">
         <v>80</v>
@@ -4956,7 +4953,7 @@
         <v>63.87222222222222</v>
       </c>
       <c r="J112" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L112" s="3"/>
     </row>
@@ -4989,7 +4986,7 @@
         <v>46.733333333333334</v>
       </c>
       <c r="J113" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L113" s="3"/>
     </row>
@@ -5022,7 +5019,7 @@
         <v>50.9</v>
       </c>
       <c r="J114" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L114" s="3"/>
     </row>
@@ -5055,7 +5052,7 @@
         <v>54.330555555555556</v>
       </c>
       <c r="J115" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L115" s="3"/>
     </row>
@@ -5067,7 +5064,7 @@
         <v>2006</v>
       </c>
       <c r="C116" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D116">
         <v>302020256</v>
@@ -5088,7 +5085,7 @@
         <v>51.986111111111114</v>
       </c>
       <c r="J116" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L116" s="3"/>
     </row>
@@ -5121,7 +5118,7 @@
         <v>56.37222222222222</v>
       </c>
       <c r="J117" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L117" s="3"/>
     </row>
@@ -5154,7 +5151,7 @@
         <v>52.244444444444447</v>
       </c>
       <c r="J118" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L118" s="3"/>
     </row>
@@ -5166,7 +5163,7 @@
         <v>2006</v>
       </c>
       <c r="C119" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D119">
         <v>302460677</v>
@@ -5187,7 +5184,7 @@
         <v>44.955555555555556</v>
       </c>
       <c r="J119" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L119" s="3"/>
     </row>
@@ -5220,7 +5217,7 @@
         <v>51.674999999999997</v>
       </c>
       <c r="J120" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L120" s="3"/>
     </row>
@@ -5253,7 +5250,7 @@
         <v>32.011111111111113</v>
       </c>
       <c r="J121" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L121" s="3"/>
     </row>
@@ -5265,7 +5262,7 @@
         <v>2006</v>
       </c>
       <c r="C122" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D122">
         <v>301420316</v>
@@ -5286,7 +5283,7 @@
         <v>65.599999999999994</v>
       </c>
       <c r="J122" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L122" s="3"/>
     </row>
@@ -5319,7 +5316,7 @@
         <v>48.483333333333334</v>
       </c>
       <c r="J123" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L123" s="3"/>
     </row>
@@ -5352,7 +5349,7 @@
         <v>54.62222222222222</v>
       </c>
       <c r="J124" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L124" s="3"/>
     </row>
@@ -5364,7 +5361,7 @@
         <v>2006</v>
       </c>
       <c r="C125" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D125">
         <v>106670558</v>
@@ -5385,7 +5382,7 @@
         <v>40.174999999999997</v>
       </c>
       <c r="J125" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L125" s="3"/>
     </row>
@@ -5418,7 +5415,7 @@
         <v>51.033333333333331</v>
       </c>
       <c r="J126" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L126" s="3"/>
     </row>
@@ -5451,7 +5448,7 @@
         <v>30.655555555555555</v>
       </c>
       <c r="J127" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L127" s="3"/>
     </row>
@@ -5463,7 +5460,7 @@
         <v>2006</v>
       </c>
       <c r="C128" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D128">
         <v>302300564</v>
@@ -5484,7 +5481,7 @@
         <v>47.480555555555554</v>
       </c>
       <c r="J128" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L128" s="3"/>
     </row>
@@ -5517,7 +5514,7 @@
         <v>48.413888888888891</v>
       </c>
       <c r="J129" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L129" s="3"/>
     </row>
@@ -5550,7 +5547,7 @@
         <v>54.552777777777777</v>
       </c>
       <c r="J130" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L130" s="3"/>
     </row>
@@ -5583,7 +5580,7 @@
         <v>50.333333333333336</v>
       </c>
       <c r="J131" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L131" s="3"/>
     </row>
@@ -5616,7 +5613,7 @@
         <v>54.5</v>
       </c>
       <c r="J132" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L132" s="3"/>
     </row>
@@ -5649,7 +5646,7 @@
         <v>60.638888888888886</v>
       </c>
       <c r="J133" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L133" s="3"/>
     </row>
@@ -5682,7 +5679,7 @@
         <v>36.652777777777779</v>
       </c>
       <c r="J134" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L134" s="3"/>
     </row>
@@ -5715,7 +5712,7 @@
         <v>40.819444444444443</v>
       </c>
       <c r="J135" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L135" s="3"/>
     </row>
@@ -5748,7 +5745,7 @@
         <v>64.488888888888894</v>
       </c>
       <c r="J136" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L136" s="3"/>
     </row>
@@ -5760,7 +5757,7 @@
         <v>2006</v>
       </c>
       <c r="C137" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D137">
         <v>400980364</v>
@@ -5781,7 +5778,7 @@
         <v>56.15</v>
       </c>
       <c r="J137" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L137" s="3"/>
     </row>
@@ -5814,7 +5811,7 @@
         <v>41.972222222222221</v>
       </c>
       <c r="J138" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L138" s="3"/>
     </row>
@@ -5847,7 +5844,7 @@
         <v>50.591666666666669</v>
       </c>
       <c r="J139" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L139" s="3"/>
     </row>
@@ -5859,7 +5856,7 @@
         <v>2006</v>
       </c>
       <c r="C140" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D140">
         <v>401150989</v>
@@ -5880,7 +5877,7 @@
         <v>48.280555555555559</v>
       </c>
       <c r="J140" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L140" s="3"/>
     </row>
@@ -5913,7 +5910,7 @@
         <v>47.652777777777779</v>
       </c>
       <c r="J141" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L141" s="3"/>
     </row>
@@ -5946,7 +5943,7 @@
         <v>59.355555555555554</v>
       </c>
       <c r="J142" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L142" s="3"/>
     </row>
@@ -5958,7 +5955,7 @@
         <v>2006</v>
       </c>
       <c r="C143" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D143">
         <v>400830434</v>
@@ -5979,7 +5976,7 @@
         <v>63.741666666666667</v>
       </c>
       <c r="J143" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L143" s="3"/>
     </row>
@@ -6012,7 +6009,7 @@
         <v>53.044444444444444</v>
       </c>
       <c r="J144" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L144" s="3"/>
     </row>
@@ -6045,7 +6042,7 @@
         <v>41.422222222222224</v>
       </c>
       <c r="J145" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L145" s="3"/>
     </row>
@@ -6057,7 +6054,7 @@
         <v>2006</v>
       </c>
       <c r="C146" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D146">
         <v>401700924</v>
@@ -6078,7 +6075,7 @@
         <v>35.661111111111111</v>
       </c>
       <c r="J146" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L146" s="3"/>
     </row>
@@ -6111,7 +6108,7 @@
         <v>51.99722222222222</v>
       </c>
       <c r="J147" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L147" s="3"/>
     </row>
@@ -6144,7 +6141,7 @@
         <v>46.738888888888887</v>
       </c>
       <c r="J148" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L148" s="3"/>
     </row>
@@ -6177,7 +6174,7 @@
         <v>45.388888888888886</v>
       </c>
       <c r="J149" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L149" s="3"/>
     </row>
@@ -6210,7 +6207,7 @@
         <v>49.555555555555557</v>
       </c>
       <c r="J150" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L150" s="3"/>
     </row>
@@ -6243,7 +6240,7 @@
         <v>55.694444444444443</v>
       </c>
       <c r="J151" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L151" s="3"/>
     </row>
@@ -6255,7 +6252,7 @@
         <v>2006</v>
       </c>
       <c r="C152" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D152">
         <v>106050898</v>
@@ -6276,7 +6273,7 @@
         <v>42.730555555555554</v>
       </c>
       <c r="J152" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L152" s="3"/>
     </row>
@@ -6309,7 +6306,7 @@
         <v>53.161111111111111</v>
       </c>
       <c r="J153" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L153" s="3"/>
     </row>
@@ -6342,7 +6339,7 @@
         <v>59.3</v>
       </c>
       <c r="J154" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L154" s="3"/>
     </row>
@@ -6375,7 +6372,7 @@
         <v>47.155555555555559</v>
       </c>
       <c r="J155" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L155" s="3"/>
     </row>
@@ -6408,7 +6405,7 @@
         <v>51.322222222222223</v>
       </c>
       <c r="J156" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L156" s="3"/>
     </row>
@@ -6441,7 +6438,7 @@
         <v>57.461111111111109</v>
       </c>
       <c r="J157" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L157" s="3"/>
     </row>
@@ -6474,7 +6471,7 @@
         <v>42.833333333333336</v>
       </c>
       <c r="J158" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L158" s="3"/>
     </row>
@@ -6507,7 +6504,7 @@
         <v>47</v>
       </c>
       <c r="J159" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L159" s="3"/>
     </row>
@@ -6540,7 +6537,7 @@
         <v>53.138888888888886</v>
       </c>
       <c r="J160" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L160" s="3"/>
     </row>
@@ -6552,7 +6549,7 @@
         <v>2006</v>
       </c>
       <c r="C161" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D161">
         <v>502480690</v>
@@ -6573,7 +6570,7 @@
         <v>38.094444444444441</v>
       </c>
       <c r="J161" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L161" s="3"/>
     </row>
@@ -6591,7 +6588,7 @@
         <v>900330681</v>
       </c>
       <c r="E162" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F162" t="s">
         <v>80</v>
@@ -6606,7 +6603,7 @@
         <v>59.077777777777776</v>
       </c>
       <c r="J162" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L162" s="3"/>
     </row>
@@ -6639,7 +6636,7 @@
         <v>53.68611111111111</v>
       </c>
       <c r="J163" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L163" s="3"/>
     </row>
@@ -6651,7 +6648,7 @@
         <v>2006</v>
       </c>
       <c r="C164" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D164">
         <v>501100821</v>
@@ -6672,7 +6669,7 @@
         <v>60.588888888888889</v>
       </c>
       <c r="J164" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L164" s="3"/>
     </row>
@@ -6705,7 +6702,7 @@
         <v>47.611111111111114</v>
       </c>
       <c r="J165" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L165" s="3"/>
     </row>
@@ -6738,7 +6735,7 @@
         <v>53.75</v>
       </c>
       <c r="J166" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L166" s="3"/>
     </row>
@@ -6771,7 +6768,7 @@
         <v>55.833333333333336</v>
       </c>
       <c r="J167" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L167" s="3"/>
     </row>
@@ -6804,7 +6801,7 @@
         <v>60</v>
       </c>
       <c r="J168" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L168" s="3"/>
     </row>
@@ -6837,7 +6834,7 @@
         <v>66.138888888888886</v>
       </c>
       <c r="J169" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L169" s="3"/>
     </row>
@@ -6870,7 +6867,7 @@
         <v>52.211111111111109</v>
       </c>
       <c r="J170" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L170" s="3"/>
     </row>
@@ -6903,7 +6900,7 @@
         <v>56.37777777777778</v>
       </c>
       <c r="J171" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L171" s="3"/>
     </row>
@@ -6936,7 +6933,7 @@
         <v>60.355555555555554</v>
       </c>
       <c r="J172" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L172" s="3"/>
     </row>
@@ -6969,7 +6966,7 @@
         <v>40.083333333333336</v>
       </c>
       <c r="J173" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L173" s="3"/>
     </row>
@@ -7002,7 +6999,7 @@
         <v>44.25</v>
       </c>
       <c r="J174" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L174" s="3"/>
     </row>
@@ -7035,7 +7032,7 @@
         <v>50.388888888888886</v>
       </c>
       <c r="J175" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L175" s="3"/>
     </row>
@@ -7047,7 +7044,7 @@
         <v>2006</v>
       </c>
       <c r="C176" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D176">
         <v>204070355</v>
@@ -7068,7 +7065,7 @@
         <v>40.736111111111114</v>
       </c>
       <c r="J176" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L176" s="3"/>
     </row>
@@ -7101,7 +7098,7 @@
         <v>62.666666666666664</v>
       </c>
       <c r="J177" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L177" s="3"/>
     </row>
@@ -7134,7 +7131,7 @@
         <v>54.238888888888887</v>
       </c>
       <c r="J178" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L178" s="3"/>
     </row>
@@ -7167,7 +7164,7 @@
         <v>46.991666666666667</v>
       </c>
       <c r="J179" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L179" s="3"/>
     </row>
@@ -7200,7 +7197,7 @@
         <v>51.158333333333331</v>
       </c>
       <c r="J180" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L180" s="3"/>
     </row>
@@ -7233,7 +7230,7 @@
         <v>57.125</v>
       </c>
       <c r="J181" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L181" s="3"/>
     </row>
@@ -7266,7 +7263,7 @@
         <v>52.083333333333336</v>
       </c>
       <c r="J182" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L182" s="3"/>
     </row>
@@ -7299,7 +7296,7 @@
         <v>56.25</v>
       </c>
       <c r="J183" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L183" s="3"/>
     </row>
@@ -7332,7 +7329,7 @@
         <v>33.333333333333336</v>
       </c>
       <c r="J184" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L184" s="3"/>
     </row>
@@ -7344,13 +7341,13 @@
         <v>2006</v>
       </c>
       <c r="C185" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D185">
         <v>501900201</v>
       </c>
       <c r="E185" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F185" t="s">
         <v>80</v>
@@ -7365,7 +7362,7 @@
         <v>45.419444444444444</v>
       </c>
       <c r="J185" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L185" s="3"/>
     </row>
@@ -7398,7 +7395,7 @@
         <v>50.413888888888891</v>
       </c>
       <c r="J186" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L186" s="3"/>
     </row>
@@ -7431,7 +7428,7 @@
         <v>50.56388888888889</v>
       </c>
       <c r="J187" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L187" s="3"/>
     </row>
@@ -7464,7 +7461,7 @@
         <v>51.894444444444446</v>
       </c>
       <c r="J188" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L188" s="3"/>
     </row>
@@ -7497,7 +7494,7 @@
         <v>56.06111111111111</v>
       </c>
       <c r="J189" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L189" s="3"/>
     </row>
@@ -7530,7 +7527,7 @@
         <v>57.644444444444446</v>
       </c>
       <c r="J190" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L190" s="3"/>
     </row>
@@ -7542,7 +7539,7 @@
         <v>2006</v>
       </c>
       <c r="C191" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D191" s="1">
         <v>106070406</v>
@@ -7563,7 +7560,7 @@
         <v>42.713888888888889</v>
       </c>
       <c r="J191" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L191" s="3"/>
     </row>
@@ -7596,7 +7593,7 @@
         <v>48.241666666666667</v>
       </c>
       <c r="J192" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L192" s="3"/>
     </row>
@@ -7629,7 +7626,7 @@
         <v>54.380555555555553</v>
       </c>
       <c r="J193" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L193" s="3"/>
     </row>
@@ -7641,7 +7638,7 @@
         <v>2006</v>
       </c>
       <c r="C194" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D194">
         <v>106900516</v>
@@ -7662,7 +7659,7 @@
         <v>39.272222222222226</v>
       </c>
       <c r="J194" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L194" s="3"/>
     </row>
@@ -7695,7 +7692,7 @@
         <v>65.24444444444444</v>
       </c>
       <c r="J195" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L195" s="3"/>
     </row>
@@ -7728,7 +7725,7 @@
         <v>46.838888888888889</v>
       </c>
       <c r="J196" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L196" s="3"/>
     </row>
@@ -7740,7 +7737,7 @@
         <v>2006</v>
       </c>
       <c r="C197" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D197">
         <v>601550699</v>
@@ -7761,7 +7758,7 @@
         <v>45.366666666666667</v>
       </c>
       <c r="J197" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L197" s="3"/>
     </row>
@@ -7794,7 +7791,7 @@
         <v>39.680555555555557</v>
       </c>
       <c r="J198" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L198" s="3"/>
     </row>
@@ -7827,7 +7824,7 @@
         <v>45.819444444444443</v>
       </c>
       <c r="J199" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L199" s="3"/>
     </row>
@@ -7839,7 +7836,7 @@
         <v>2006</v>
       </c>
       <c r="C200" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D200" s="1">
         <v>501410976</v>
@@ -7860,7 +7857,7 @@
         <v>53.758333333333333</v>
       </c>
       <c r="J200" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L200" s="3"/>
     </row>
@@ -7893,7 +7890,7 @@
         <v>61.844444444444441</v>
       </c>
       <c r="J201" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L201" s="3"/>
     </row>
@@ -7926,7 +7923,7 @@
         <v>41.111111111111114</v>
       </c>
       <c r="J202" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L202" s="3"/>
     </row>
@@ -7959,7 +7956,7 @@
         <v>43.836111111111109</v>
       </c>
       <c r="J203" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L203" s="3"/>
     </row>
@@ -7992,7 +7989,7 @@
         <v>48.00277777777778</v>
       </c>
       <c r="J204" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L204" s="3"/>
     </row>
@@ -8025,7 +8022,7 @@
         <v>47.4</v>
       </c>
       <c r="J205" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L205" s="3"/>
     </row>
@@ -8058,7 +8055,7 @@
         <v>46.569444444444443</v>
       </c>
       <c r="J206" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L206" s="3"/>
     </row>
@@ -8091,7 +8088,7 @@
         <v>50.736111111111114</v>
       </c>
       <c r="J207" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L207" s="3"/>
     </row>
@@ -8124,7 +8121,7 @@
         <v>56.875</v>
       </c>
       <c r="J208" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L208" s="3"/>
     </row>
@@ -8136,16 +8133,16 @@
         <v>2006</v>
       </c>
       <c r="C209" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D209">
         <v>900110306</v>
       </c>
       <c r="E209" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F209" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G209" s="5">
         <v>38788</v>
@@ -8157,7 +8154,7 @@
         <v>58.702777777777776</v>
       </c>
       <c r="J209" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L209" s="3"/>
     </row>
@@ -8190,19 +8187,19 @@
         <v>43.797222222222224</v>
       </c>
       <c r="J210" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L210" s="3"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B211">
         <v>2016</v>
       </c>
       <c r="C211" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D211">
         <v>601740642</v>
@@ -8223,7 +8220,7 @@
         <v>56.241666666666667</v>
       </c>
       <c r="J211" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L211" s="3"/>
     </row>
@@ -8235,7 +8232,7 @@
         <v>2006</v>
       </c>
       <c r="C212" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D212">
         <v>601620830</v>
@@ -8256,7 +8253,7 @@
         <v>44.325000000000003</v>
       </c>
       <c r="J212" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L212" s="3"/>
     </row>
@@ -8289,7 +8286,7 @@
         <v>38.855555555555554</v>
       </c>
       <c r="J213" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L213" s="3"/>
     </row>
@@ -8301,7 +8298,7 @@
         <v>2016</v>
       </c>
       <c r="C214" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D214">
         <v>601310946</v>
@@ -8322,7 +8319,7 @@
         <v>60.208333333333336</v>
       </c>
       <c r="J214" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L214" s="3"/>
     </row>
@@ -8355,7 +8352,7 @@
         <v>44.361111111111114</v>
       </c>
       <c r="J215" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L215" s="3"/>
     </row>
@@ -8388,7 +8385,7 @@
         <v>48.527777777777779</v>
       </c>
       <c r="J216" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L216" s="3"/>
     </row>
@@ -8421,7 +8418,7 @@
         <v>54.666666666666664</v>
       </c>
       <c r="J217" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L217" s="3"/>
     </row>
@@ -8433,7 +8430,7 @@
         <v>2006</v>
       </c>
       <c r="C218" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D218">
         <v>105300752</v>
@@ -8454,7 +8451,7 @@
         <v>46.083333333333336</v>
       </c>
       <c r="J218" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L218" s="3"/>
     </row>
@@ -8487,7 +8484,7 @@
         <v>43.522222222222226</v>
       </c>
       <c r="J219" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L219" s="3"/>
     </row>
@@ -8520,7 +8517,7 @@
         <v>49.661111111111111</v>
       </c>
       <c r="J220" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L220" s="3"/>
     </row>
@@ -8532,7 +8529,7 @@
         <v>2006</v>
       </c>
       <c r="C221" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D221">
         <v>601250463</v>
@@ -8553,7 +8550,7 @@
         <v>49.736111111111114</v>
       </c>
       <c r="J221" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L221" s="3"/>
     </row>
@@ -8586,7 +8583,7 @@
         <v>52.169444444444444</v>
       </c>
       <c r="J222" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L222" s="3"/>
     </row>
@@ -8598,7 +8595,7 @@
         <v>2016</v>
       </c>
       <c r="C223" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D223">
         <v>106260818</v>
@@ -8619,7 +8616,7 @@
         <v>52.102777777777774</v>
       </c>
       <c r="J223" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L223" s="3"/>
     </row>
@@ -8652,7 +8649,7 @@
         <v>45.152777777777779</v>
       </c>
       <c r="J224" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L224" s="3"/>
     </row>
@@ -8685,7 +8682,7 @@
         <v>49.319444444444443</v>
       </c>
       <c r="J225" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L225" s="3"/>
     </row>
@@ -8697,7 +8694,7 @@
         <v>2016</v>
       </c>
       <c r="C226" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D226">
         <v>501020541</v>
@@ -8718,7 +8715,7 @@
         <v>72.963888888888889</v>
       </c>
       <c r="J226" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L226" s="3"/>
     </row>
@@ -8730,7 +8727,7 @@
         <v>2006</v>
       </c>
       <c r="C227" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D227">
         <v>700740905</v>
@@ -8751,7 +8748,7 @@
         <v>43.086111111111109</v>
       </c>
       <c r="J227" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L227" s="3"/>
     </row>
@@ -8784,7 +8781,7 @@
         <v>48.463888888888889</v>
       </c>
       <c r="J228" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L228" s="3"/>
     </row>
@@ -8802,10 +8799,10 @@
         <v>107590539</v>
       </c>
       <c r="E229" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F229" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G229" s="5">
         <v>42553</v>
@@ -8817,7 +8814,7 @@
         <v>54.602777777777774</v>
       </c>
       <c r="J229" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L229" s="3"/>
     </row>
@@ -8829,7 +8826,7 @@
         <v>2006</v>
       </c>
       <c r="C230" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D230">
         <v>700340706</v>
@@ -8850,7 +8847,7 @@
         <v>62.266666666666666</v>
       </c>
       <c r="J230" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L230" s="3"/>
     </row>
@@ -8883,7 +8880,7 @@
         <v>50.672222222222224</v>
       </c>
       <c r="J231" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L231" s="3"/>
     </row>
@@ -8895,7 +8892,7 @@
         <v>2016</v>
       </c>
       <c r="C232" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D232">
         <v>501820428</v>
@@ -8916,7 +8913,7 @@
         <v>56.80833333333333</v>
       </c>
       <c r="J232" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L232" s="3"/>
     </row>
@@ -8928,16 +8925,16 @@
         <v>2006</v>
       </c>
       <c r="C233" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D233">
         <v>301340932</v>
       </c>
       <c r="E233" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F233" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G233" s="5">
         <v>38788</v>
@@ -8949,7 +8946,7 @@
         <v>67.727777777777774</v>
       </c>
       <c r="J233" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L233" s="3"/>
     </row>
@@ -8967,7 +8964,7 @@
         <v>700900647</v>
       </c>
       <c r="E234" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F234" t="s">
         <v>80</v>
@@ -8982,7 +8979,7 @@
         <v>41.966666666666669</v>
       </c>
       <c r="J234" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L234" s="3"/>
     </row>
@@ -8994,7 +8991,7 @@
         <v>2016</v>
       </c>
       <c r="C235" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D235">
         <v>701330745</v>
@@ -9015,7 +9012,7 @@
         <v>36.772222222222226</v>
       </c>
       <c r="J235" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L235" s="3"/>
     </row>
@@ -9027,7 +9024,7 @@
         <v>2006</v>
       </c>
       <c r="C236" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D236">
         <v>700780736</v>
@@ -9048,7 +9045,7 @@
         <v>41.988888888888887</v>
       </c>
       <c r="J236" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L236" s="3"/>
     </row>
@@ -9081,7 +9078,7 @@
         <v>53.225000000000001</v>
       </c>
       <c r="J237" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L237" s="3"/>
     </row>
@@ -9093,7 +9090,7 @@
         <v>2016</v>
       </c>
       <c r="C238" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D238">
         <v>502640709</v>
@@ -9114,7 +9111,7 @@
         <v>45.411111111111111</v>
       </c>
       <c r="J238" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L238" s="3"/>
     </row>
@@ -9126,7 +9123,7 @@
         <v>2006</v>
       </c>
       <c r="C239" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D239">
         <v>700690810</v>
@@ -9147,7 +9144,7 @@
         <v>44.736111111111114</v>
       </c>
       <c r="J239" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L239" s="3"/>
     </row>
@@ -9180,7 +9177,7 @@
         <v>36.755555555555553</v>
       </c>
       <c r="J240" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L240" s="3"/>
     </row>
@@ -9213,7 +9210,7 @@
         <v>42.894444444444446</v>
       </c>
       <c r="J241" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L241" s="3"/>
     </row>
@@ -9246,7 +9243,7 @@
         <v>51.802777777777777</v>
       </c>
       <c r="J242" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L242" s="3"/>
     </row>
@@ -9279,7 +9276,7 @@
         <v>55.969444444444441</v>
       </c>
       <c r="J243" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L243" s="3"/>
     </row>
@@ -9312,7 +9309,7 @@
         <v>62.108333333333334</v>
       </c>
       <c r="J244" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L244" s="3"/>
     </row>
